--- a/xls/LithicTools.xlsx
+++ b/xls/LithicTools.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheitman2/Documents/BTSync/Grants/SPARC/SPARC Activities/Data Tables &amp; Schema/FINAL DB tables/March 2017 Final Tables/drive-download-20170328T141955Z-001/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="460" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="1600" yWindow="860" windowWidth="25600" windowHeight="12760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -18,23 +13,23 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tools!$A$1:$S$467</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tools!$A$1:$R$467</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Tools!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="275">
   <si>
     <t>Yes</t>
   </si>
@@ -810,9 +805,6 @@
     <t>Room</t>
   </si>
   <si>
-    <t>PII?</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -919,18 +911,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -994,7 +977,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1008,41 +991,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1061,7 +1041,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G Strat"/>
@@ -5922,13 +5902,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S467"/>
+  <dimension ref="A1:R467"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="1"/>
@@ -5945,87 +5925,83 @@
     <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="M1" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="N1" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="O1" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="Q1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="R1" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="11"/>
-    </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="12">
+      <c r="A2" s="5"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1">
       <c r="A3" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>097W</v>
@@ -6081,11 +6057,8 @@
       <c r="R3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1">
       <c r="A4" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -6141,11 +6114,8 @@
       <c r="R4" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" ht="18" customHeight="1">
       <c r="A5" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -6201,11 +6171,8 @@
       <c r="R5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" ht="18" customHeight="1">
       <c r="A6" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -6258,11 +6225,8 @@
       <c r="Q6" s="2">
         <v>167.4</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" ht="18" customHeight="1">
       <c r="A7" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -6315,11 +6279,8 @@
       <c r="Q7" s="2">
         <v>447</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:18" ht="18" customHeight="1">
       <c r="A8" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -6375,11 +6336,8 @@
       <c r="R8" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" ht="18" customHeight="1">
       <c r="A9" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -6432,11 +6390,8 @@
       <c r="Q9" s="2">
         <v>403.9</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" ht="18" customHeight="1">
       <c r="A10" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>102A</v>
@@ -6489,11 +6444,8 @@
       <c r="Q10" s="2">
         <v>200.7</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" ht="18" customHeight="1">
       <c r="A11" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -6546,11 +6498,8 @@
       <c r="Q11" s="2">
         <v>116.3</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" ht="18" customHeight="1">
       <c r="A12" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6606,11 +6555,8 @@
       <c r="R12" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" ht="18" customHeight="1">
       <c r="A13" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6666,11 +6612,8 @@
       <c r="R13" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18" ht="18" customHeight="1">
       <c r="A14" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6726,11 +6669,8 @@
       <c r="R14" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" ht="18" customHeight="1">
       <c r="A15" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6783,11 +6723,8 @@
       <c r="Q15" s="2">
         <v>360.5</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" ht="18" customHeight="1">
       <c r="A16" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6843,11 +6780,8 @@
       <c r="R16" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:18" ht="18" customHeight="1">
       <c r="A17" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6900,11 +6834,8 @@
       <c r="Q17" s="2">
         <v>254.1</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:18" ht="18" customHeight="1">
       <c r="A18" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6957,11 +6888,8 @@
       <c r="Q18" s="2">
         <v>193.1</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:18" ht="18" customHeight="1">
       <c r="A19" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7017,11 +6945,8 @@
       <c r="R19" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:18" ht="18" customHeight="1">
       <c r="A20" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7074,11 +6999,8 @@
       <c r="Q20" s="2">
         <v>9999</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:18" ht="18" customHeight="1">
       <c r="A21" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7131,11 +7053,8 @@
       <c r="Q21" s="2">
         <v>392.7</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:18" ht="18" customHeight="1">
       <c r="A22" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7191,11 +7110,8 @@
       <c r="R22" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:18" ht="18" customHeight="1">
       <c r="A23" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7251,11 +7167,8 @@
       <c r="R23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:18" ht="18" customHeight="1">
       <c r="A24" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7308,11 +7221,8 @@
       <c r="Q24" s="2">
         <v>400.2</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:18" ht="18" customHeight="1">
       <c r="A25" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7365,11 +7275,8 @@
       <c r="Q25" s="2">
         <v>229.7</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:18" ht="18" customHeight="1">
       <c r="A26" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7422,11 +7329,8 @@
       <c r="Q26" s="2">
         <v>596.5</v>
       </c>
-      <c r="S26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:18" ht="18" customHeight="1">
       <c r="A27" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7479,11 +7383,8 @@
       <c r="Q27" s="2">
         <v>983.7</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:18" ht="18" customHeight="1">
       <c r="A28" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -7536,11 +7437,8 @@
       <c r="Q28" s="2">
         <v>508.3</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:18" ht="18" customHeight="1">
       <c r="A29" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -7593,11 +7491,8 @@
       <c r="Q29" s="2">
         <v>41.6</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:18" ht="18" customHeight="1">
       <c r="A30" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -7650,11 +7545,8 @@
       <c r="Q30" s="2">
         <v>78.2</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:18" ht="18" customHeight="1">
       <c r="A31" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -7710,11 +7602,8 @@
       <c r="R31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:18" ht="18" customHeight="1">
       <c r="A32" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -7770,11 +7659,8 @@
       <c r="R32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:18" ht="18" customHeight="1">
       <c r="A33" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -7830,11 +7716,8 @@
       <c r="R33" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="S33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:18" ht="18" customHeight="1">
       <c r="A34" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -7890,11 +7773,8 @@
       <c r="R34" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="S34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:18" ht="18" customHeight="1">
       <c r="A35" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -7947,11 +7827,8 @@
       <c r="Q35" s="2">
         <v>67.900000000000006</v>
       </c>
-      <c r="S35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:18" ht="18" customHeight="1">
       <c r="A36" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -8007,11 +7884,8 @@
       <c r="R36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S36" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:18" ht="18" customHeight="1">
       <c r="A37" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -8064,11 +7938,8 @@
       <c r="Q37" s="2">
         <v>158.6</v>
       </c>
-      <c r="S37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:18" ht="18" customHeight="1">
       <c r="A38" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -8121,11 +7992,8 @@
       <c r="Q38" s="2">
         <v>111.9</v>
       </c>
-      <c r="S38" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:18" ht="18" customHeight="1">
       <c r="A39" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -8181,11 +8049,8 @@
       <c r="R39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S39" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:18" ht="18" customHeight="1">
       <c r="A40" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -8238,11 +8103,8 @@
       <c r="Q40" s="2">
         <v>398.6</v>
       </c>
-      <c r="S40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:18" ht="18" customHeight="1">
       <c r="A41" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -8298,11 +8160,8 @@
       <c r="R41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:18" ht="18" customHeight="1">
       <c r="A42" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -8358,11 +8217,8 @@
       <c r="R42" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="S42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:18" ht="18" customHeight="1">
       <c r="A43" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>129W</v>
@@ -8415,11 +8271,8 @@
       <c r="Q43" s="2">
         <v>476.7</v>
       </c>
-      <c r="S43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:18" ht="18" customHeight="1">
       <c r="A44" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -8472,11 +8325,8 @@
       <c r="Q44" s="2">
         <v>303.60000000000002</v>
       </c>
-      <c r="S44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:18" ht="18" customHeight="1">
       <c r="A45" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -8532,11 +8382,8 @@
       <c r="R45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:18" ht="18" customHeight="1">
       <c r="A46" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -8589,11 +8436,8 @@
       <c r="Q46" s="2">
         <v>9999</v>
       </c>
-      <c r="S46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:18" ht="18" customHeight="1">
       <c r="A47" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -8646,11 +8490,8 @@
       <c r="Q47" s="2">
         <v>67.5</v>
       </c>
-      <c r="S47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:18" ht="18" customHeight="1">
       <c r="A48" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -8706,11 +8547,8 @@
       <c r="R48" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="S48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:18" ht="18" customHeight="1">
       <c r="A49" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -8763,11 +8601,8 @@
       <c r="Q49" s="2">
         <v>292.10000000000002</v>
       </c>
-      <c r="S49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:18" ht="18" customHeight="1">
       <c r="A50" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -8820,11 +8655,8 @@
       <c r="Q50" s="2">
         <v>237.9</v>
       </c>
-      <c r="S50" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:18" ht="18" customHeight="1">
       <c r="A51" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -8880,11 +8712,8 @@
       <c r="R51" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="S51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:18" ht="18" customHeight="1">
       <c r="A52" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -8937,11 +8766,8 @@
       <c r="Q52" s="2">
         <v>496.4</v>
       </c>
-      <c r="S52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:18" ht="18" customHeight="1">
       <c r="A53" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -8994,11 +8820,8 @@
       <c r="Q53" s="2">
         <v>225.7</v>
       </c>
-      <c r="S53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:18" ht="18" customHeight="1">
       <c r="A54" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -9051,11 +8874,8 @@
       <c r="Q54" s="2">
         <v>221.3</v>
       </c>
-      <c r="S54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:18" ht="18" customHeight="1">
       <c r="A55" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -9108,11 +8928,8 @@
       <c r="Q55" s="2">
         <v>176.8</v>
       </c>
-      <c r="S55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:18" ht="18" customHeight="1">
       <c r="A56" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>004W</v>
@@ -9165,11 +8982,8 @@
       <c r="Q56" s="2">
         <v>728.4</v>
       </c>
-      <c r="S56" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:18" ht="18" customHeight="1">
       <c r="A57" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -9225,11 +9039,8 @@
       <c r="R57" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:18" ht="18" customHeight="1">
       <c r="A58" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -9285,11 +9096,8 @@
       <c r="R58" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:18" ht="18" customHeight="1">
       <c r="A59" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>101W</v>
@@ -9342,11 +9150,8 @@
       <c r="Q59" s="2">
         <v>424.8</v>
       </c>
-      <c r="S59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:18" ht="18" customHeight="1">
       <c r="A60" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>101W</v>
@@ -9399,11 +9204,8 @@
       <c r="Q60" s="2">
         <v>936.1</v>
       </c>
-      <c r="S60" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:18" ht="18" customHeight="1">
       <c r="A61" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9459,11 +9261,8 @@
       <c r="R61" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="S61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:18" ht="18" customHeight="1">
       <c r="A62" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9516,11 +9315,8 @@
       <c r="Q62" s="2">
         <v>161.6</v>
       </c>
-      <c r="S62" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:18" ht="18" customHeight="1">
       <c r="A63" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9576,11 +9372,8 @@
       <c r="R63" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:18" ht="18" customHeight="1">
       <c r="A64" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9636,11 +9429,8 @@
       <c r="R64" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="S64" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:18" ht="18" customHeight="1">
       <c r="A65" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9696,11 +9486,8 @@
       <c r="R65" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="S65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:18" ht="18" customHeight="1">
       <c r="A66" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9753,11 +9540,8 @@
       <c r="Q66" s="2">
         <v>537.20000000000005</v>
       </c>
-      <c r="S66" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:18" ht="18" customHeight="1">
       <c r="A67" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9810,11 +9594,8 @@
       <c r="Q67" s="2">
         <v>149.9</v>
       </c>
-      <c r="S67" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:18" ht="18" customHeight="1">
       <c r="A68" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9870,11 +9651,8 @@
       <c r="R68" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="S68" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:18" ht="18" customHeight="1">
       <c r="A69" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9930,11 +9708,8 @@
       <c r="R69" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="S69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:18" ht="18" customHeight="1">
       <c r="A70" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>119W</v>
@@ -9990,11 +9765,8 @@
       <c r="R70" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="S70" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:18" ht="18" customHeight="1">
       <c r="A71" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -10047,11 +9819,8 @@
       <c r="Q71" s="2">
         <v>394</v>
       </c>
-      <c r="S71" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:18" ht="18" customHeight="1">
       <c r="A72" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -10104,11 +9873,8 @@
       <c r="Q72" s="2">
         <v>114.1</v>
       </c>
-      <c r="S72" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:18" ht="18" customHeight="1">
       <c r="A73" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -10161,11 +9927,8 @@
       <c r="Q73" s="2">
         <v>208.5</v>
       </c>
-      <c r="S73" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:18" ht="18" customHeight="1">
       <c r="A74" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -10221,11 +9984,8 @@
       <c r="R74" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="S74" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:18" ht="18" customHeight="1">
       <c r="A75" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -10278,11 +10038,8 @@
       <c r="Q75" s="2">
         <v>501.5</v>
       </c>
-      <c r="S75" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:18" ht="18" customHeight="1">
       <c r="A76" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -10335,11 +10092,8 @@
       <c r="Q76" s="2">
         <v>296.7</v>
       </c>
-      <c r="S76" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:18" ht="18" customHeight="1">
       <c r="A77" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -10392,11 +10146,8 @@
       <c r="Q77" s="2">
         <v>772.7</v>
       </c>
-      <c r="S77" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:18" ht="18" customHeight="1">
       <c r="A78" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -10449,11 +10200,8 @@
       <c r="Q78" s="2">
         <v>607.70000000000005</v>
       </c>
-      <c r="S78" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:18" ht="18" customHeight="1">
       <c r="A79" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -10509,11 +10257,8 @@
       <c r="R79" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="S79" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:18" ht="18" customHeight="1">
       <c r="A80" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -10566,11 +10311,8 @@
       <c r="Q80" s="2">
         <v>193</v>
       </c>
-      <c r="S80" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:18" ht="18" customHeight="1">
       <c r="A81" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -10623,11 +10365,8 @@
       <c r="Q81" s="2">
         <v>450.2</v>
       </c>
-      <c r="S81" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:18" ht="18" customHeight="1">
       <c r="A82" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -10680,11 +10419,8 @@
       <c r="Q82" s="2">
         <v>338.8</v>
       </c>
-      <c r="S82" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:18" ht="18" customHeight="1">
       <c r="A83" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>129W</v>
@@ -10740,11 +10476,8 @@
       <c r="R83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S83" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:18" ht="18" customHeight="1">
       <c r="A84" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10797,11 +10530,8 @@
       <c r="Q84" s="2">
         <v>717.7</v>
       </c>
-      <c r="S84" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:18" ht="18" customHeight="1">
       <c r="A85" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10857,11 +10587,8 @@
       <c r="R85" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S85" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:18" ht="18" customHeight="1">
       <c r="A86" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10914,11 +10641,8 @@
       <c r="Q86" s="2">
         <v>112.5</v>
       </c>
-      <c r="S86" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:18" ht="18" customHeight="1">
       <c r="A87" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10971,11 +10695,8 @@
       <c r="Q87" s="2">
         <v>97.4</v>
       </c>
-      <c r="S87" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:18" ht="18" customHeight="1">
       <c r="A88" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11028,11 +10749,8 @@
       <c r="Q88" s="2">
         <v>219.5</v>
       </c>
-      <c r="S88" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:18" ht="18" customHeight="1">
       <c r="A89" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11085,11 +10803,8 @@
       <c r="Q89" s="2">
         <v>283</v>
       </c>
-      <c r="S89" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:18" ht="18" customHeight="1">
       <c r="A90" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11142,11 +10857,8 @@
       <c r="Q90" s="2">
         <v>171.3</v>
       </c>
-      <c r="S90" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:18" ht="18" customHeight="1">
       <c r="A91" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11199,11 +10911,8 @@
       <c r="Q91" s="2">
         <v>116.1</v>
       </c>
-      <c r="S91" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:18" ht="18" customHeight="1">
       <c r="A92" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11256,11 +10965,8 @@
       <c r="Q92" s="2">
         <v>162.19999999999999</v>
       </c>
-      <c r="S92" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:18" ht="18" customHeight="1">
       <c r="A93" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11316,11 +11022,8 @@
       <c r="R93" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="S93" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:18" ht="18" customHeight="1">
       <c r="A94" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11376,11 +11079,8 @@
       <c r="R94" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="S94" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:18" ht="18" customHeight="1">
       <c r="A95" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11433,11 +11133,8 @@
       <c r="Q95" s="2">
         <v>79.3</v>
       </c>
-      <c r="S95" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:18" ht="18" customHeight="1">
       <c r="A96" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11490,11 +11187,8 @@
       <c r="Q96" s="2">
         <v>197.2</v>
       </c>
-      <c r="S96" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:18" ht="18" customHeight="1">
       <c r="A97" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11547,11 +11241,8 @@
       <c r="Q97" s="2">
         <v>488.6</v>
       </c>
-      <c r="S97" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:18" ht="18" customHeight="1">
       <c r="A98" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11607,11 +11298,8 @@
       <c r="R98" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="S98" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:18" ht="18" customHeight="1">
       <c r="A99" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11664,11 +11352,8 @@
       <c r="Q99" s="2">
         <v>390.3</v>
       </c>
-      <c r="S99" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:18" ht="18" customHeight="1">
       <c r="A100" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -11721,11 +11406,8 @@
       <c r="Q100" s="2">
         <v>219</v>
       </c>
-      <c r="S100" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:18" ht="18" customHeight="1">
       <c r="A101" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -11778,11 +11460,8 @@
       <c r="Q101" s="2">
         <v>94.7</v>
       </c>
-      <c r="S101" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:18" ht="18" customHeight="1">
       <c r="A102" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>062W</v>
@@ -11835,11 +11514,8 @@
       <c r="Q102" s="2">
         <v>5</v>
       </c>
-      <c r="S102" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:18" ht="18" customHeight="1">
       <c r="A103" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>062W</v>
@@ -11892,11 +11568,8 @@
       <c r="Q103" s="2">
         <v>35.5</v>
       </c>
-      <c r="S103" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:18" ht="18" customHeight="1">
       <c r="A104" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>004W</v>
@@ -11949,11 +11622,8 @@
       <c r="Q104" s="2">
         <v>267.8</v>
       </c>
-      <c r="S104" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:18" ht="18" customHeight="1">
       <c r="A105" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -12009,11 +11679,8 @@
       <c r="R105" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="S105" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:18" ht="18" customHeight="1">
       <c r="A106" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -12069,11 +11736,8 @@
       <c r="R106" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="S106" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:18" ht="18" customHeight="1">
       <c r="A107" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -12126,11 +11790,8 @@
       <c r="Q107" s="2">
         <v>9999</v>
       </c>
-      <c r="S107" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:18" ht="18" customHeight="1">
       <c r="A108" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>063W</v>
@@ -12183,11 +11844,8 @@
       <c r="Q108" s="2">
         <v>486.8</v>
       </c>
-      <c r="S108" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:18" ht="18" customHeight="1">
       <c r="A109" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>063W</v>
@@ -12243,11 +11901,8 @@
       <c r="R109" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="S109" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:18" ht="18" customHeight="1">
       <c r="A110" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>063W</v>
@@ -12300,11 +11955,8 @@
       <c r="Q110" s="2">
         <v>299</v>
       </c>
-      <c r="S110" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:18" ht="18" customHeight="1">
       <c r="A111" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -12357,11 +12009,8 @@
       <c r="Q111" s="2">
         <v>205.1</v>
       </c>
-      <c r="S111" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:18" ht="18" customHeight="1">
       <c r="A112" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -12417,11 +12066,8 @@
       <c r="R112" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="S112" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:18" ht="18" customHeight="1">
       <c r="A113" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -12474,11 +12120,8 @@
       <c r="Q113" s="2">
         <v>526.9</v>
       </c>
-      <c r="S113" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:18" ht="18" customHeight="1">
       <c r="A114" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -12534,11 +12177,8 @@
       <c r="R114" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S114" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:18" ht="18" customHeight="1">
       <c r="A115" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -12591,11 +12231,8 @@
       <c r="Q115" s="2">
         <v>142.4</v>
       </c>
-      <c r="S115" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:18" ht="18" customHeight="1">
       <c r="A116" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -12648,11 +12285,8 @@
       <c r="Q116" s="2">
         <v>175.4</v>
       </c>
-      <c r="S116" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:18" ht="18" customHeight="1">
       <c r="A117" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -12705,11 +12339,8 @@
       <c r="Q117" s="2">
         <v>92.2</v>
       </c>
-      <c r="S117" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:18" ht="18" customHeight="1">
       <c r="A118" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -12765,11 +12396,8 @@
       <c r="R118" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="S118" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:18" ht="18" customHeight="1">
       <c r="A119" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -12825,11 +12453,8 @@
       <c r="R119" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="S119" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:18" ht="18" customHeight="1">
       <c r="A120" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>102A</v>
@@ -12885,11 +12510,8 @@
       <c r="R120" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S120" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:18" ht="18" customHeight="1">
       <c r="A121" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -12945,11 +12567,8 @@
       <c r="R121" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="S121" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:18" ht="18" customHeight="1">
       <c r="A122" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -13002,11 +12621,8 @@
       <c r="Q122" s="2">
         <v>149.80000000000001</v>
       </c>
-      <c r="S122" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:18" ht="18" customHeight="1">
       <c r="A123" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -13059,11 +12675,8 @@
       <c r="Q123" s="2">
         <v>265.60000000000002</v>
       </c>
-      <c r="S123" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:18" ht="18" customHeight="1">
       <c r="A124" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -13116,11 +12729,8 @@
       <c r="Q124" s="2">
         <v>175.2</v>
       </c>
-      <c r="S124" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:18" ht="18" customHeight="1">
       <c r="A125" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -13173,11 +12783,8 @@
       <c r="Q125" s="2">
         <v>195.9</v>
       </c>
-      <c r="S125" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:18" ht="18" customHeight="1">
       <c r="A126" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -13230,11 +12837,8 @@
       <c r="Q126" s="2">
         <v>583.79999999999995</v>
       </c>
-      <c r="S126" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:18" ht="18" customHeight="1">
       <c r="A127" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -13287,11 +12891,8 @@
       <c r="Q127" s="2">
         <v>388.6</v>
       </c>
-      <c r="S127" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:18" ht="18" customHeight="1">
       <c r="A128" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -13344,11 +12945,8 @@
       <c r="Q128" s="2">
         <v>254.8</v>
       </c>
-      <c r="S128" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:18" ht="18" customHeight="1">
       <c r="A129" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -13404,11 +13002,8 @@
       <c r="R129" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="S129" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:18" ht="18" customHeight="1">
       <c r="A130" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -13461,11 +13056,8 @@
       <c r="Q130" s="2">
         <v>368.5</v>
       </c>
-      <c r="S130" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:18" ht="18" customHeight="1">
       <c r="A131" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -13518,11 +13110,8 @@
       <c r="Q131" s="2">
         <v>456.4</v>
       </c>
-      <c r="S131" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:18" ht="18" customHeight="1">
       <c r="A132" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -13575,11 +13164,8 @@
       <c r="Q132" s="2">
         <v>349.9</v>
       </c>
-      <c r="S132" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:18" ht="18" customHeight="1">
       <c r="A133" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -13635,11 +13221,8 @@
       <c r="R133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S133" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:18" ht="18" customHeight="1">
       <c r="A134" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -13692,11 +13275,8 @@
       <c r="Q134" s="2">
         <v>601</v>
       </c>
-      <c r="S134" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:18" ht="18" customHeight="1">
       <c r="A135" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -13749,11 +13329,8 @@
       <c r="Q135" s="2">
         <v>81.5</v>
       </c>
-      <c r="S135" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:18" ht="18" customHeight="1">
       <c r="A136" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -13806,11 +13383,8 @@
       <c r="Q136" s="2">
         <v>190.2</v>
       </c>
-      <c r="S136" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:18" ht="18" customHeight="1">
       <c r="A137" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -13863,11 +13437,8 @@
       <c r="Q137" s="2">
         <v>788.8</v>
       </c>
-      <c r="S137" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:18" ht="18" customHeight="1">
       <c r="A138" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -13920,11 +13491,8 @@
       <c r="Q138" s="2">
         <v>89.8</v>
       </c>
-      <c r="S138" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:18" ht="18" customHeight="1">
       <c r="A139" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -13977,11 +13545,8 @@
       <c r="Q139" s="2">
         <v>62.1</v>
       </c>
-      <c r="S139" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:18" ht="18" customHeight="1">
       <c r="A140" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14034,11 +13599,8 @@
       <c r="Q140" s="2">
         <v>15.1</v>
       </c>
-      <c r="S140" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:18" ht="18" customHeight="1">
       <c r="A141" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -14091,11 +13653,8 @@
       <c r="Q141" s="2">
         <v>9999</v>
       </c>
-      <c r="S141" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:18" ht="18" customHeight="1">
       <c r="A142" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -14148,11 +13707,8 @@
       <c r="Q142" s="2">
         <v>156.4</v>
       </c>
-      <c r="S142" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:18" ht="18" customHeight="1">
       <c r="A143" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -14208,11 +13764,8 @@
       <c r="R143" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="S143" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:18" ht="18" customHeight="1">
       <c r="A144" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -14265,11 +13818,8 @@
       <c r="Q144" s="2">
         <v>96</v>
       </c>
-      <c r="S144" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:18" ht="18" customHeight="1">
       <c r="A145" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -14325,11 +13875,8 @@
       <c r="R145" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S145" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:18" ht="18" customHeight="1">
       <c r="A146" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -14382,11 +13929,8 @@
       <c r="Q146" s="2">
         <v>70.599999999999994</v>
       </c>
-      <c r="S146" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:18" ht="18" customHeight="1">
       <c r="A147" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>101W</v>
@@ -14442,11 +13986,8 @@
       <c r="R147" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="S147" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:18" ht="18" customHeight="1">
       <c r="A148" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -14499,11 +14040,8 @@
       <c r="Q148" s="2">
         <v>143</v>
       </c>
-      <c r="S148" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:18" ht="18" customHeight="1">
       <c r="A149" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>129W</v>
@@ -14559,11 +14097,8 @@
       <c r="R149" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S149" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:18" ht="18" customHeight="1">
       <c r="A150" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>119W</v>
@@ -14616,11 +14151,8 @@
       <c r="Q150" s="2">
         <v>44.7</v>
       </c>
-      <c r="S150" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:18" ht="18" customHeight="1">
       <c r="A151" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>119W</v>
@@ -14673,11 +14205,8 @@
       <c r="Q151" s="2">
         <v>43.1</v>
       </c>
-      <c r="S151" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:18" ht="18" customHeight="1">
       <c r="A152" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -14733,11 +14262,8 @@
       <c r="R152" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="S152" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:18" ht="18" customHeight="1">
       <c r="A153" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -14793,11 +14319,8 @@
       <c r="R153" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S153" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:18" ht="18" customHeight="1">
       <c r="A154" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14850,11 +14373,8 @@
       <c r="Q154" s="2">
         <v>156.4</v>
       </c>
-      <c r="S154" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:18" ht="18" customHeight="1">
       <c r="A155" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14907,11 +14427,8 @@
       <c r="Q155" s="2">
         <v>64.7</v>
       </c>
-      <c r="S155" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:18" ht="18" customHeight="1">
       <c r="A156" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14964,11 +14481,8 @@
       <c r="Q156" s="2">
         <v>144.69999999999999</v>
       </c>
-      <c r="S156" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:18" ht="18" customHeight="1">
       <c r="A157" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15021,11 +14535,8 @@
       <c r="Q157" s="2">
         <v>241</v>
       </c>
-      <c r="S157" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:18" ht="18" customHeight="1">
       <c r="A158" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15078,11 +14589,8 @@
       <c r="Q158" s="2">
         <v>55.5</v>
       </c>
-      <c r="S158" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:18" ht="18" customHeight="1">
       <c r="A159" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15135,11 +14643,8 @@
       <c r="Q159" s="2">
         <v>133.1</v>
       </c>
-      <c r="S159" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:18" ht="18" customHeight="1">
       <c r="A160" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15195,11 +14700,8 @@
       <c r="R160" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S160" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:18" ht="18" customHeight="1">
       <c r="A161" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15255,11 +14757,8 @@
       <c r="R161" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="S161" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:18" ht="18" customHeight="1">
       <c r="A162" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15315,11 +14814,8 @@
       <c r="R162" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S162" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:18" ht="18" customHeight="1">
       <c r="A163" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15372,11 +14868,8 @@
       <c r="Q163" s="2">
         <v>67.599999999999994</v>
       </c>
-      <c r="S163" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:18" ht="18" customHeight="1">
       <c r="A164" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15429,11 +14922,8 @@
       <c r="Q164" s="2">
         <v>73.400000000000006</v>
       </c>
-      <c r="S164" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:18" ht="18" customHeight="1">
       <c r="A165" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15489,11 +14979,8 @@
       <c r="R165" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S165" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:18" ht="18" customHeight="1">
       <c r="A166" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15546,11 +15033,8 @@
       <c r="Q166" s="2">
         <v>58.8</v>
       </c>
-      <c r="S166" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:18" ht="18" customHeight="1">
       <c r="A167" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15603,11 +15087,8 @@
       <c r="Q167" s="2">
         <v>73.8</v>
       </c>
-      <c r="S167" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:18" ht="18" customHeight="1">
       <c r="A168" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15663,11 +15144,8 @@
       <c r="R168" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="S168" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:18" ht="18" customHeight="1">
       <c r="A169" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15720,11 +15198,8 @@
       <c r="Q169" s="2">
         <v>19.8</v>
       </c>
-      <c r="S169" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:18" ht="18" customHeight="1">
       <c r="A170" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15777,11 +15252,8 @@
       <c r="Q170" s="2">
         <v>107.7</v>
       </c>
-      <c r="S170" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:18" ht="18" customHeight="1">
       <c r="A171" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15837,11 +15309,8 @@
       <c r="R171" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="S171" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:18" ht="18" customHeight="1">
       <c r="A172" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15897,11 +15366,8 @@
       <c r="R172" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="S172" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:18" ht="18" customHeight="1">
       <c r="A173" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15957,11 +15423,8 @@
       <c r="R173" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S173" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:18" ht="18" customHeight="1">
       <c r="A174" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -16014,11 +15477,8 @@
       <c r="Q174" s="2">
         <v>37.9</v>
       </c>
-      <c r="S174" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:18" ht="18" customHeight="1">
       <c r="A175" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -16074,11 +15534,8 @@
       <c r="R175" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="S175" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:18" ht="18" customHeight="1">
       <c r="A176" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -16131,11 +15588,8 @@
       <c r="Q176" s="2">
         <v>250.2</v>
       </c>
-      <c r="S176" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:18" ht="18" customHeight="1">
       <c r="A177" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -16188,11 +15642,8 @@
       <c r="Q177" s="2">
         <v>86.6</v>
       </c>
-      <c r="S177" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:18" ht="18" customHeight="1">
       <c r="A178" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -16245,11 +15696,8 @@
       <c r="Q178" s="2">
         <v>9999</v>
       </c>
-      <c r="S178" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:18" ht="18" customHeight="1">
       <c r="A179" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -16302,11 +15750,8 @@
       <c r="Q179" s="2">
         <v>6</v>
       </c>
-      <c r="S179" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:18" ht="18" customHeight="1">
       <c r="A180" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -16359,11 +15804,8 @@
       <c r="Q180" s="2">
         <v>147.6</v>
       </c>
-      <c r="S180" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:18" ht="18" customHeight="1">
       <c r="A181" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -16416,11 +15858,8 @@
       <c r="Q181" s="2">
         <v>9999</v>
       </c>
-      <c r="S181" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:18" ht="18" customHeight="1">
       <c r="A182" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>063W</v>
@@ -16476,11 +15915,8 @@
       <c r="R182" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="S182" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:18" ht="18" customHeight="1">
       <c r="A183" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -16536,11 +15972,8 @@
       <c r="R183" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="S183" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:18" ht="18" customHeight="1">
       <c r="A184" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -16596,11 +16029,8 @@
       <c r="R184" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="S184" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:18" ht="18" customHeight="1">
       <c r="A185" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -16653,11 +16083,8 @@
       <c r="Q185" s="2">
         <v>199.6</v>
       </c>
-      <c r="S185" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:18" ht="18" customHeight="1">
       <c r="A186" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -16710,11 +16137,8 @@
       <c r="Q186" s="2">
         <v>65.3</v>
       </c>
-      <c r="S186" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:18" ht="18" customHeight="1">
       <c r="A187" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>102A</v>
@@ -16770,11 +16194,8 @@
       <c r="R187" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S187" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:18" ht="18" customHeight="1">
       <c r="A188" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>062W</v>
@@ -16827,11 +16248,8 @@
       <c r="Q188" s="2">
         <v>38.1</v>
       </c>
-      <c r="S188" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:18" ht="18" customHeight="1">
       <c r="A189" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -16884,11 +16302,8 @@
       <c r="Q189" s="2">
         <v>74.8</v>
       </c>
-      <c r="S189" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:18" ht="18" customHeight="1">
       <c r="A190" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>001W</v>
@@ -16944,11 +16359,8 @@
       <c r="R190" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="S190" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:18" ht="18" customHeight="1">
       <c r="A191" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -17004,11 +16416,8 @@
       <c r="R191" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="S191" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:18" ht="18" customHeight="1">
       <c r="A192" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -17061,11 +16470,8 @@
       <c r="Q192" s="2">
         <v>157.9</v>
       </c>
-      <c r="S192" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:18" ht="18" customHeight="1">
       <c r="A193" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -17121,11 +16527,8 @@
       <c r="R193" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S193" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:18" ht="18" customHeight="1">
       <c r="A194" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -17181,11 +16584,8 @@
       <c r="R194" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S194" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:18" ht="18" customHeight="1">
       <c r="A195" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -17241,11 +16641,8 @@
       <c r="R195" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S195" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:18" ht="18" customHeight="1">
       <c r="A196" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -17298,11 +16695,8 @@
       <c r="Q196" s="2">
         <v>81.5</v>
       </c>
-      <c r="S196" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:18" ht="18" customHeight="1">
       <c r="A197" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -17355,11 +16749,8 @@
       <c r="Q197" s="2">
         <v>47.6</v>
       </c>
-      <c r="S197" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:18" ht="18" customHeight="1">
       <c r="A198" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>119W</v>
@@ -17415,11 +16806,8 @@
       <c r="R198" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="S198" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:18" ht="18" customHeight="1">
       <c r="A199" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -17473,11 +16861,8 @@
         <v>50</v>
       </c>
       <c r="R199" s="2"/>
-      <c r="S199" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:18" ht="18" customHeight="1">
       <c r="A200" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -17530,11 +16915,8 @@
       <c r="Q200" s="2">
         <v>287.8</v>
       </c>
-      <c r="S200" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:18" ht="18" customHeight="1">
       <c r="A201" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>062W</v>
@@ -17590,11 +16972,8 @@
       <c r="R201" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="S201" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:18" ht="18" customHeight="1">
       <c r="A202" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -17650,11 +17029,8 @@
       <c r="R202" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="S202" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:18" ht="18" customHeight="1">
       <c r="A203" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -17710,11 +17086,8 @@
       <c r="R203" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="S203" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:18" ht="18" customHeight="1">
       <c r="A204" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -17770,11 +17143,8 @@
       <c r="R204" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="S204" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:18" ht="18" customHeight="1">
       <c r="A205" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>064W</v>
@@ -17830,11 +17200,8 @@
       <c r="R205" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S205" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:18" ht="18" customHeight="1">
       <c r="A206" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -17887,11 +17254,8 @@
       <c r="Q206" s="2">
         <v>9.4</v>
       </c>
-      <c r="S206" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:18" ht="18" customHeight="1">
       <c r="A207" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -17947,11 +17311,8 @@
       <c r="R207" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="S207" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:18" ht="18" customHeight="1">
       <c r="A208" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>063W</v>
@@ -18007,11 +17368,8 @@
       <c r="R208" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="S208" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:18" ht="18" customHeight="1">
       <c r="A209" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>063W</v>
@@ -18067,11 +17425,8 @@
       <c r="R209" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="S209" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:18" ht="18" customHeight="1">
       <c r="A210" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -18127,11 +17482,8 @@
       <c r="R210" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="S210" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:18" ht="18" customHeight="1">
       <c r="A211" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -18187,11 +17539,8 @@
       <c r="R211" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S211" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:18" ht="18" customHeight="1">
       <c r="A212" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -18247,11 +17596,8 @@
       <c r="R212" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="S212" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:18" ht="18" customHeight="1">
       <c r="A213" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -18307,11 +17653,8 @@
       <c r="R213" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="S213" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:18" ht="18" customHeight="1">
       <c r="A214" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -18364,11 +17707,8 @@
       <c r="Q214" s="2">
         <v>890.1</v>
       </c>
-      <c r="S214" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:18" ht="18" customHeight="1">
       <c r="A215" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -18421,11 +17761,8 @@
       <c r="Q215" s="2">
         <v>182.7</v>
       </c>
-      <c r="S215" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:18" ht="18" customHeight="1">
       <c r="A216" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -18478,11 +17815,8 @@
       <c r="Q216" s="2">
         <v>550</v>
       </c>
-      <c r="S216" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:18" ht="18" customHeight="1">
       <c r="A217" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -18538,11 +17872,8 @@
       <c r="R217" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="S217" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:18" ht="18" customHeight="1">
       <c r="A218" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -18595,11 +17926,8 @@
       <c r="Q218" s="2">
         <v>453.7</v>
       </c>
-      <c r="S218" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:18" ht="18" customHeight="1">
       <c r="A219" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -18652,11 +17980,8 @@
       <c r="Q219" s="2">
         <v>774.3</v>
       </c>
-      <c r="S219" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:18" ht="18" customHeight="1">
       <c r="A220" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>119W</v>
@@ -18712,11 +18037,8 @@
       <c r="R220" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="S220" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:18" ht="18" customHeight="1">
       <c r="A221" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -18772,11 +18094,8 @@
       <c r="R221" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S221" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:18" ht="18" customHeight="1">
       <c r="A222" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -18832,11 +18151,8 @@
       <c r="R222" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="S222" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:18" ht="18" customHeight="1">
       <c r="A223" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -18889,11 +18205,8 @@
       <c r="Q223" s="2">
         <v>513.9</v>
       </c>
-      <c r="S223" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:18" ht="18" customHeight="1">
       <c r="A224" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -18949,11 +18262,8 @@
       <c r="R224" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="S224" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:18" ht="18" customHeight="1">
       <c r="A225" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -19006,11 +18316,8 @@
       <c r="Q225" s="2">
         <v>239.3</v>
       </c>
-      <c r="S225" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:18" ht="18" customHeight="1">
       <c r="A226" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>102A</v>
@@ -19063,11 +18370,8 @@
       <c r="Q226" s="2">
         <v>680.2</v>
       </c>
-      <c r="S226" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:18" ht="18" customHeight="1">
       <c r="A227" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -19123,11 +18427,8 @@
       <c r="R227" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S227" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:18" ht="18" customHeight="1">
       <c r="A228" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -19183,11 +18484,8 @@
       <c r="R228" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S228" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:18" ht="18" customHeight="1">
       <c r="A229" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -19240,11 +18538,8 @@
       <c r="Q229" s="2">
         <v>501.4</v>
       </c>
-      <c r="S229" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:18" ht="18" customHeight="1">
       <c r="A230" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -19297,11 +18592,8 @@
       <c r="Q230" s="2">
         <v>142.1</v>
       </c>
-      <c r="S230" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:18" ht="18" customHeight="1">
       <c r="A231" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -19354,11 +18646,8 @@
       <c r="Q231" s="2">
         <v>121.8</v>
       </c>
-      <c r="S231" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:18" ht="18" customHeight="1">
       <c r="A232" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -19414,11 +18703,8 @@
       <c r="R232" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="S232" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:18" ht="18" customHeight="1">
       <c r="A233" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -19471,11 +18757,8 @@
       <c r="Q233" s="2">
         <v>235</v>
       </c>
-      <c r="S233" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:18" ht="18" customHeight="1">
       <c r="A234" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -19528,11 +18811,8 @@
       <c r="Q234" s="2">
         <v>302.8</v>
       </c>
-      <c r="S234" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:18" ht="18" customHeight="1">
       <c r="A235" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -19585,11 +18865,8 @@
       <c r="Q235" s="2">
         <v>242.8</v>
       </c>
-      <c r="S235" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:18" ht="18" customHeight="1">
       <c r="A236" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -19645,11 +18922,8 @@
       <c r="R236" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="S236" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:18" ht="18" customHeight="1">
       <c r="A237" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -19702,11 +18976,8 @@
       <c r="Q237" s="2">
         <v>548.79999999999995</v>
       </c>
-      <c r="S237" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:18" ht="18" customHeight="1">
       <c r="A238" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -19762,11 +19033,8 @@
       <c r="R238" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="S238" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:18" ht="18" customHeight="1">
       <c r="A239" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>101W</v>
@@ -19819,11 +19087,8 @@
       <c r="Q239" s="2">
         <v>393.6</v>
       </c>
-      <c r="S239" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:18" ht="18" customHeight="1">
       <c r="A240" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>101W</v>
@@ -19876,11 +19141,8 @@
       <c r="Q240" s="2">
         <v>46</v>
       </c>
-      <c r="S240" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:18" ht="18" customHeight="1">
       <c r="A241" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -19936,11 +19198,8 @@
       <c r="R241" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="S241" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:18" ht="18" customHeight="1">
       <c r="A242" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -19996,11 +19255,8 @@
       <c r="R242" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="S242" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:18" ht="18" customHeight="1">
       <c r="A243" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -20053,11 +19309,8 @@
       <c r="Q243" s="2">
         <v>9999</v>
       </c>
-      <c r="S243" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:18" ht="18" customHeight="1">
       <c r="A244" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -20110,11 +19363,8 @@
       <c r="Q244" s="2">
         <v>762.4</v>
       </c>
-      <c r="S244" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:18" ht="18" customHeight="1">
       <c r="A245" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -20167,11 +19417,8 @@
       <c r="Q245" s="2">
         <v>629</v>
       </c>
-      <c r="S245" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:18" ht="18" customHeight="1">
       <c r="A246" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -20227,11 +19474,8 @@
       <c r="R246" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S246" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:18" ht="18" customHeight="1">
       <c r="A247" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -20284,11 +19528,8 @@
       <c r="Q247" s="2">
         <v>254.3</v>
       </c>
-      <c r="S247" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:18" ht="18" customHeight="1">
       <c r="A248" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -20341,11 +19582,8 @@
       <c r="Q248" s="2">
         <v>146.9</v>
       </c>
-      <c r="S248" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:18" ht="18" customHeight="1">
       <c r="A249" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -20398,11 +19636,8 @@
       <c r="Q249" s="2">
         <v>132.1</v>
       </c>
-      <c r="S249" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:18" ht="18" customHeight="1">
       <c r="A250" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -20458,11 +19693,8 @@
       <c r="R250" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S250" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:18" ht="18" customHeight="1">
       <c r="A251" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -20515,11 +19747,8 @@
       <c r="Q251" s="2">
         <v>42.7</v>
       </c>
-      <c r="S251" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:18" ht="18" customHeight="1">
       <c r="A252" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -20572,11 +19801,8 @@
       <c r="Q252" s="2">
         <v>134.19999999999999</v>
       </c>
-      <c r="S252" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:18" ht="18" customHeight="1">
       <c r="A253" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -20629,11 +19855,8 @@
       <c r="Q253" s="2">
         <v>136.19999999999999</v>
       </c>
-      <c r="S253" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:18" ht="18" customHeight="1">
       <c r="A254" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -20686,11 +19909,8 @@
       <c r="Q254" s="2">
         <v>448.8</v>
       </c>
-      <c r="S254" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:18" ht="18" customHeight="1">
       <c r="A255" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>064W</v>
@@ -20746,11 +19966,8 @@
       <c r="R255" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="S255" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:18" ht="18" customHeight="1">
       <c r="A256" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -20803,11 +20020,8 @@
       <c r="Q256" s="2">
         <v>243.5</v>
       </c>
-      <c r="S256" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:18" ht="18" customHeight="1">
       <c r="A257" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>004W</v>
@@ -20860,11 +20074,8 @@
       <c r="Q257" s="2">
         <v>313.10000000000002</v>
       </c>
-      <c r="S257" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:18" ht="18" customHeight="1">
       <c r="A258" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -20917,11 +20128,8 @@
       <c r="Q258" s="2">
         <v>251.9</v>
       </c>
-      <c r="S258" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:18" ht="18" customHeight="1">
       <c r="A259" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -20974,11 +20182,8 @@
       <c r="Q259" s="2">
         <v>114.4</v>
       </c>
-      <c r="S259" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:18" ht="18" customHeight="1">
       <c r="A260" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -21034,11 +20239,8 @@
       <c r="R260" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="S260" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:18" ht="18" customHeight="1">
       <c r="A261" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -21094,11 +20296,8 @@
       <c r="R261" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="S261" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:18" ht="18" customHeight="1">
       <c r="A262" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -21151,11 +20350,8 @@
       <c r="Q262" s="2">
         <v>254.8</v>
       </c>
-      <c r="S262" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:18" ht="18" customHeight="1">
       <c r="A263" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -21208,11 +20404,8 @@
       <c r="Q263" s="2">
         <v>168</v>
       </c>
-      <c r="S263" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:18" ht="18" customHeight="1">
       <c r="A264" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -21265,11 +20458,8 @@
       <c r="Q264" s="2">
         <v>530</v>
       </c>
-      <c r="S264" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:18" ht="18" customHeight="1">
       <c r="A265" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -21325,11 +20515,8 @@
       <c r="R265" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="S265" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:18" ht="18" customHeight="1">
       <c r="A266" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -21385,11 +20572,8 @@
       <c r="R266" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="S266" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:18" ht="14">
       <c r="A267" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21443,7 +20627,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18" ht="14">
       <c r="A268" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -21500,7 +20684,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18" ht="14">
       <c r="A269" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21554,7 +20738,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18" ht="14">
       <c r="A270" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21608,7 +20792,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18" ht="14">
       <c r="A271" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21662,7 +20846,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18" ht="14">
       <c r="A272" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21719,7 +20903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18" ht="14">
       <c r="A273" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21776,7 +20960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18" ht="14">
       <c r="A274" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21833,7 +21017,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" ht="14">
       <c r="A275" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21887,7 +21071,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18" ht="14">
       <c r="A276" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21941,7 +21125,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18" ht="14">
       <c r="A277" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21995,7 +21179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18" ht="14">
       <c r="A278" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22052,7 +21236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" ht="14">
       <c r="A279" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22109,7 +21293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" ht="14">
       <c r="A280" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22163,7 +21347,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18" ht="14">
       <c r="A281" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22220,7 +21404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18" ht="18" customHeight="1">
       <c r="A282" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22276,11 +21460,8 @@
       <c r="R282" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S282" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:18" ht="18" customHeight="1">
       <c r="A283" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22336,11 +21517,8 @@
       <c r="R283" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S283" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:18" ht="18" customHeight="1">
       <c r="A284" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22396,11 +21574,8 @@
       <c r="R284" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S284" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:18" ht="18" customHeight="1">
       <c r="A285" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22456,11 +21631,8 @@
       <c r="R285" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S285" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:18" ht="18" customHeight="1">
       <c r="A286" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22516,11 +21688,8 @@
       <c r="R286" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S286" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:18" ht="18" customHeight="1">
       <c r="A287" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22576,11 +21745,8 @@
       <c r="R287" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S287" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:18" ht="14">
       <c r="A288" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22637,7 +21803,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="289" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" ht="14">
       <c r="A289" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22691,7 +21857,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="290" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" ht="14">
       <c r="A290" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22748,7 +21914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" ht="14">
       <c r="A291" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22805,7 +21971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" ht="14">
       <c r="A292" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22862,7 +22028,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="293" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" ht="14">
       <c r="A293" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22919,7 +22085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" ht="14">
       <c r="A294" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22973,7 +22139,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="295" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" ht="14">
       <c r="A295" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23030,7 +22196,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="296" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" ht="14">
       <c r="A296" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23084,7 +22250,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="297" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" ht="14">
       <c r="A297" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23141,7 +22307,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="298" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" ht="14">
       <c r="A298" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23195,7 +22361,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="299" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" ht="14">
       <c r="A299" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23249,7 +22415,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="300" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" ht="14">
       <c r="A300" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23306,7 +22472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" ht="14">
       <c r="A301" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23363,7 +22529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" ht="14">
       <c r="A302" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23420,7 +22586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" ht="14">
       <c r="A303" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23474,7 +22640,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="304" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" ht="14">
       <c r="A304" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23531,7 +22697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18" ht="14">
       <c r="A305" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23588,7 +22754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18" ht="14">
       <c r="A306" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23645,7 +22811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" ht="14">
       <c r="A307" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23699,7 +22865,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="308" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18" ht="14">
       <c r="A308" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23753,7 +22919,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" ht="14">
       <c r="A309" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23807,7 +22973,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="310" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18" ht="14">
       <c r="A310" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23861,7 +23027,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="311" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" ht="14">
       <c r="A311" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23915,7 +23081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" ht="14">
       <c r="A312" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23969,7 +23135,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="313" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" ht="14">
       <c r="A313" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24026,7 +23192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18" ht="14">
       <c r="A314" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24083,7 +23249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" ht="14">
       <c r="A315" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24140,7 +23306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" ht="14">
       <c r="A316" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24197,7 +23363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" ht="14">
       <c r="A317" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24251,7 +23417,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="318" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" ht="14">
       <c r="A318" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24305,7 +23471,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="319" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" ht="14">
       <c r="A319" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24359,7 +23525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" ht="14">
       <c r="A320" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24413,7 +23579,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="321" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" ht="14">
       <c r="A321" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24467,7 +23633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" ht="14">
       <c r="A322" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24524,7 +23690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" ht="14">
       <c r="A323" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24581,7 +23747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" ht="14">
       <c r="A324" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24638,7 +23804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" ht="14">
       <c r="A325" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24695,7 +23861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" ht="14">
       <c r="A326" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24752,7 +23918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" ht="14">
       <c r="A327" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24806,7 +23972,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="328" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" ht="14">
       <c r="A328" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24863,7 +24029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" ht="14">
       <c r="A329" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24917,7 +24083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" ht="14">
       <c r="A330" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24971,7 +24137,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" ht="14">
       <c r="A331" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25025,7 +24191,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="332" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" ht="14">
       <c r="A332" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25082,7 +24248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" ht="14">
       <c r="A333" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25139,7 +24305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" ht="14">
       <c r="A334" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25193,7 +24359,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="335" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" ht="14">
       <c r="A335" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25247,7 +24413,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="336" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" ht="14">
       <c r="A336" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25304,7 +24470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18" ht="14">
       <c r="A337" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25358,7 +24524,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="338" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18" ht="14">
       <c r="A338" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25415,7 +24581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18" ht="14">
       <c r="A339" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25469,7 +24635,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="340" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18" ht="14">
       <c r="A340" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25523,7 +24689,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="341" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18" ht="14">
       <c r="A341" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25580,7 +24746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18" ht="14">
       <c r="A342" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25634,7 +24800,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="343" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18" ht="14">
       <c r="A343" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25691,7 +24857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18" ht="14">
       <c r="A344" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25748,7 +24914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18" ht="14">
       <c r="A345" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25805,7 +24971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18" ht="14">
       <c r="A346" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25859,7 +25025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="347" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18" ht="14">
       <c r="A347" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25916,7 +25082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18" ht="14">
       <c r="A348" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25970,7 +25136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="349" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18" ht="14">
       <c r="A349" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26027,7 +25193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18" ht="14">
       <c r="A350" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26081,7 +25247,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="351" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18" ht="14">
       <c r="A351" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26135,7 +25301,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="352" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18" ht="14">
       <c r="A352" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26192,7 +25358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18" ht="14">
       <c r="A353" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26246,7 +25412,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="354" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18" ht="14">
       <c r="A354" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26303,7 +25469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18" ht="14">
       <c r="A355" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26357,7 +25523,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="356" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18" ht="14">
       <c r="A356" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26414,7 +25580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18" ht="14">
       <c r="A357" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26468,7 +25634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18" ht="14">
       <c r="A358" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26525,7 +25691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18" ht="14">
       <c r="A359" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26582,7 +25748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18" ht="14">
       <c r="A360" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26639,7 +25805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18" ht="14">
       <c r="A361" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26696,7 +25862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:18" ht="14">
       <c r="A362" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26753,7 +25919,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="363" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:18" ht="14">
       <c r="A363" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26810,7 +25976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:18" ht="14">
       <c r="A364" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26864,7 +26030,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="365" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:18" ht="14">
       <c r="A365" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26918,7 +26084,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="366" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:18" ht="14">
       <c r="A366" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26975,7 +26141,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="367" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:18" ht="14">
       <c r="A367" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27029,7 +26195,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="368" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:18" ht="14">
       <c r="A368" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27086,7 +26252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="369" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:18" ht="14">
       <c r="A369" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27143,7 +26309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:18" ht="14">
       <c r="A370" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27197,7 +26363,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="371" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:18" ht="14">
       <c r="A371" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27251,7 +26417,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="372" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:18" ht="14">
       <c r="A372" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27305,7 +26471,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="373" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:18" ht="14">
       <c r="A373" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27359,7 +26525,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="374" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:18" ht="14">
       <c r="A374" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27413,7 +26579,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="375" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:18" ht="14">
       <c r="A375" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27470,7 +26636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:18" ht="14">
       <c r="A376" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27527,7 +26693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:18" ht="14">
       <c r="A377" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27581,7 +26747,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="378" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:18" ht="14">
       <c r="A378" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27638,7 +26804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:18" ht="14">
       <c r="A379" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27695,7 +26861,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="380" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:18" ht="14">
       <c r="A380" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27749,7 +26915,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="381" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:18" ht="14">
       <c r="A381" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27803,7 +26969,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="382" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:18" ht="14">
       <c r="A382" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27860,7 +27026,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="383" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:18" ht="14">
       <c r="A383" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27914,7 +27080,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="384" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:18" ht="14">
       <c r="A384" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27971,7 +27137,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="385" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:18" ht="14">
       <c r="A385" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28025,7 +27191,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="386" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:18" ht="14">
       <c r="A386" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28082,7 +27248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:18" ht="14">
       <c r="A387" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28139,7 +27305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="388" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:18" ht="14">
       <c r="A388" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28193,7 +27359,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="389" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:18" ht="14">
       <c r="A389" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28250,7 +27416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:18" ht="14">
       <c r="A390" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28307,7 +27473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:18" ht="14">
       <c r="A391" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28361,7 +27527,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="392" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:18" ht="14">
       <c r="A392" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28415,7 +27581,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="393" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:18" ht="14">
       <c r="A393" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28469,7 +27635,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="394" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:18" ht="14">
       <c r="A394" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28526,7 +27692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:18" ht="14">
       <c r="A395" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28583,7 +27749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:18" ht="14">
       <c r="A396" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28640,7 +27806,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="397" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:18" ht="14">
       <c r="A397" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28694,7 +27860,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="398" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:18" ht="14">
       <c r="A398" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28751,7 +27917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:18" ht="14">
       <c r="A399" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28808,7 +27974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:18" ht="14">
       <c r="A400" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28862,7 +28028,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:18" ht="18" customHeight="1">
       <c r="A401" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28915,11 +28081,8 @@
       <c r="Q401" s="2">
         <v>0.4</v>
       </c>
-      <c r="S401" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:18" ht="14">
       <c r="A402" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28973,7 +28136,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:18" ht="14">
       <c r="A403" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29030,7 +28193,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:18" ht="14">
       <c r="A404" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29084,7 +28247,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:18" ht="18" customHeight="1">
       <c r="A405" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29140,11 +28303,8 @@
       <c r="R405" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S405" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:18" ht="14">
       <c r="A406" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29201,7 +28361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:18" ht="14">
       <c r="A407" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29255,7 +28415,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:18" ht="14">
       <c r="A408" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29312,7 +28472,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:18" ht="14">
       <c r="A409" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29369,7 +28529,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:18" ht="14">
       <c r="A410" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29426,7 +28586,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:18" ht="14">
       <c r="A411" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29483,7 +28643,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:18" ht="14">
       <c r="A412" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29537,7 +28697,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:18" ht="14">
       <c r="A413" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29594,7 +28754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:18" ht="14">
       <c r="A414" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29651,7 +28811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:18" ht="14">
       <c r="A415" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29705,7 +28865,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:18" ht="14">
       <c r="A416" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29759,7 +28919,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:18" ht="14">
       <c r="A417" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29816,7 +28976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:18" ht="14">
       <c r="A418" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29870,7 +29030,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:18" ht="14">
       <c r="A419" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29924,7 +29084,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:18" ht="14">
       <c r="A420" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29978,7 +29138,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:18" ht="14">
       <c r="A421" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30035,7 +29195,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:18" ht="14">
       <c r="A422" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30089,7 +29249,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:18" ht="14">
       <c r="A423" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30143,7 +29303,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:18" ht="14">
       <c r="A424" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30200,7 +29360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:18" ht="14">
       <c r="A425" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30257,7 +29417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:18" ht="14">
       <c r="A426" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30311,7 +29471,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:18" ht="14">
       <c r="A427" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30365,7 +29525,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:18" ht="14">
       <c r="A428" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30419,7 +29579,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:18" ht="18" customHeight="1">
       <c r="A429" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30475,11 +29635,8 @@
       <c r="R429" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S429" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:18" ht="18" customHeight="1">
       <c r="A430" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30535,11 +29692,8 @@
       <c r="R430" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S430" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:18" ht="18" customHeight="1">
       <c r="A431" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30595,11 +29749,8 @@
       <c r="R431" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S431" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:18" ht="18" customHeight="1">
       <c r="A432" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30655,11 +29806,8 @@
       <c r="R432" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S432" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:18" ht="18" customHeight="1">
       <c r="A433" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30715,11 +29863,8 @@
       <c r="R433" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S433" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:18" ht="14">
       <c r="A434" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30776,7 +29921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:18" ht="14">
       <c r="A435" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30833,7 +29978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:18" ht="14">
       <c r="A436" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30890,7 +30035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:18" ht="14">
       <c r="A437" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30947,7 +30092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:18" ht="18" customHeight="1">
       <c r="A438" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31003,11 +30148,8 @@
       <c r="R438" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S438" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:18" ht="14">
       <c r="A439" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31061,7 +30203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:18" ht="14">
       <c r="A440" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31118,7 +30260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:18" ht="14">
       <c r="A441" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31172,7 +30314,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:18" ht="14">
       <c r="A442" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31229,7 +30371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:18" ht="14">
       <c r="A443" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31286,7 +30428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:18" ht="14">
       <c r="A444" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31343,7 +30485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:18" ht="14">
       <c r="A445" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31400,7 +30542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:18" ht="14">
       <c r="A446" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31457,7 +30599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:18" ht="14">
       <c r="A447" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31514,7 +30656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:18" ht="14">
       <c r="A448" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31568,7 +30710,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:18" ht="14">
       <c r="A449" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31622,7 +30764,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:18" ht="14">
       <c r="A450" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31679,7 +30821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:18" ht="14">
       <c r="A451" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31733,7 +30875,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:18" ht="14">
       <c r="A452" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31787,7 +30929,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:18" ht="14">
       <c r="A453" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31844,7 +30986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:18" ht="14">
       <c r="A454" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31898,7 +31040,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:18" ht="14">
       <c r="A455" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31955,7 +31097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:18" ht="14">
       <c r="A456" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -32009,7 +31151,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:18" ht="14">
       <c r="A457" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -32066,7 +31208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:18" ht="14">
       <c r="A458" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -32120,7 +31262,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:18" ht="14">
       <c r="A459" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -32177,7 +31319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:18" ht="18" customHeight="1">
       <c r="A460" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>005W</v>
@@ -32230,11 +31372,8 @@
       <c r="Q460" s="2">
         <v>76.8</v>
       </c>
-      <c r="S460" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:18" ht="18" customHeight="1">
       <c r="A461" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -32287,11 +31426,8 @@
       <c r="Q461" s="2">
         <v>6.2</v>
       </c>
-      <c r="S461" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:18" ht="18" customHeight="1">
       <c r="A462" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -32344,11 +31480,8 @@
       <c r="Q462" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S462" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:18" ht="18" customHeight="1">
       <c r="A463" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -32401,11 +31534,8 @@
       <c r="Q463" s="2">
         <v>12.6</v>
       </c>
-      <c r="S463" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="464" spans="1:18" ht="18" customHeight="1">
       <c r="A464" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -32458,11 +31588,8 @@
       <c r="Q464" s="2">
         <v>9.6</v>
       </c>
-      <c r="S464" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:18" ht="18" customHeight="1">
       <c r="A465" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -32518,11 +31645,8 @@
       <c r="R465" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S465" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="466" spans="1:18" ht="18" customHeight="1">
       <c r="A466" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -32578,11 +31702,8 @@
       <c r="R466" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S466" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="467" spans="1:18" ht="18" customHeight="1">
       <c r="A467" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -32638,15 +31759,14 @@
       <c r="R467" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S467" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S467"/>
-  <mergeCells count="19">
+  <autoFilter ref="A1:R467"/>
+  <mergeCells count="18">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
@@ -32661,11 +31781,13 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/xls/LithicTools.xlsx
+++ b/xls/LithicTools.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheitman2/Documents/BTSync/Grants/SPARC/SPARC Activities/Data Tables &amp; Schema/FINAL DB tables/March 2017 Final Tables/drive-download-20170328T141955Z-001/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="860" windowWidth="25600" windowHeight="12760" tabRatio="500"/>
+    <workbookView xWindow="6140" yWindow="460" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -13,23 +18,23 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tools!$A$1:$R$467</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tools!$A$1:$S$467</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Tools!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="276">
   <si>
     <t>Yes</t>
   </si>
@@ -805,6 +810,9 @@
     <t>Room</t>
   </si>
   <si>
+    <t>PII?</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -911,9 +919,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -977,7 +994,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -991,38 +1008,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1041,7 +1061,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G Strat"/>
@@ -5902,13 +5922,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R467"/>
+  <dimension ref="A1:S467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="1"/>
@@ -5925,83 +5945,87 @@
     <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" ht="12">
-      <c r="A2" s="5"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1">
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A2" s="10"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="11"/>
+    </row>
+    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>097W</v>
@@ -6057,8 +6081,11 @@
       <c r="R3" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1">
+      <c r="S3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -6114,8 +6141,11 @@
       <c r="R4" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1">
+      <c r="S4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -6171,8 +6201,11 @@
       <c r="R5" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="18" customHeight="1">
+      <c r="S5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -6225,8 +6258,11 @@
       <c r="Q6" s="2">
         <v>167.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="18" customHeight="1">
+      <c r="S6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -6279,8 +6315,11 @@
       <c r="Q7" s="2">
         <v>447</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="18" customHeight="1">
+      <c r="S7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -6336,8 +6375,11 @@
       <c r="R8" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="18" customHeight="1">
+      <c r="S8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -6390,8 +6432,11 @@
       <c r="Q9" s="2">
         <v>403.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="18" customHeight="1">
+      <c r="S9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>102A</v>
@@ -6444,8 +6489,11 @@
       <c r="Q10" s="2">
         <v>200.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="18" customHeight="1">
+      <c r="S10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -6498,8 +6546,11 @@
       <c r="Q11" s="2">
         <v>116.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="18" customHeight="1">
+      <c r="S11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6555,8 +6606,11 @@
       <c r="R12" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="18" customHeight="1">
+      <c r="S12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6612,8 +6666,11 @@
       <c r="R13" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="18" customHeight="1">
+      <c r="S13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6669,8 +6726,11 @@
       <c r="R14" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="18" customHeight="1">
+      <c r="S14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6723,8 +6783,11 @@
       <c r="Q15" s="2">
         <v>360.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="18" customHeight="1">
+      <c r="S15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6780,8 +6843,11 @@
       <c r="R16" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="18" customHeight="1">
+      <c r="S16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6834,8 +6900,11 @@
       <c r="Q17" s="2">
         <v>254.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="18" customHeight="1">
+      <c r="S17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6888,8 +6957,11 @@
       <c r="Q18" s="2">
         <v>193.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="18" customHeight="1">
+      <c r="S18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6945,8 +7017,11 @@
       <c r="R19" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="18" customHeight="1">
+      <c r="S19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -6999,8 +7074,11 @@
       <c r="Q20" s="2">
         <v>9999</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="18" customHeight="1">
+      <c r="S20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7053,8 +7131,11 @@
       <c r="Q21" s="2">
         <v>392.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="18" customHeight="1">
+      <c r="S21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7110,8 +7191,11 @@
       <c r="R22" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="18" customHeight="1">
+      <c r="S22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7167,8 +7251,11 @@
       <c r="R23" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="18" customHeight="1">
+      <c r="S23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7221,8 +7308,11 @@
       <c r="Q24" s="2">
         <v>400.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="18" customHeight="1">
+      <c r="S24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7275,8 +7365,11 @@
       <c r="Q25" s="2">
         <v>229.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="18" customHeight="1">
+      <c r="S25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7329,8 +7422,11 @@
       <c r="Q26" s="2">
         <v>596.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="18" customHeight="1">
+      <c r="S26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -7383,8 +7479,11 @@
       <c r="Q27" s="2">
         <v>983.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="18" customHeight="1">
+      <c r="S27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -7437,8 +7536,11 @@
       <c r="Q28" s="2">
         <v>508.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="18" customHeight="1">
+      <c r="S28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -7491,8 +7593,11 @@
       <c r="Q29" s="2">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="18" customHeight="1">
+      <c r="S29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -7545,8 +7650,11 @@
       <c r="Q30" s="2">
         <v>78.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="18" customHeight="1">
+      <c r="S30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -7602,8 +7710,11 @@
       <c r="R31" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="18" customHeight="1">
+      <c r="S31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -7659,8 +7770,11 @@
       <c r="R32" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="18" customHeight="1">
+      <c r="S32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -7716,8 +7830,11 @@
       <c r="R33" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="18" customHeight="1">
+      <c r="S33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -7773,8 +7890,11 @@
       <c r="R34" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="18" customHeight="1">
+      <c r="S34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -7827,8 +7947,11 @@
       <c r="Q35" s="2">
         <v>67.900000000000006</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="18" customHeight="1">
+      <c r="S35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -7884,8 +8007,11 @@
       <c r="R36" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="18" customHeight="1">
+      <c r="S36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -7938,8 +8064,11 @@
       <c r="Q37" s="2">
         <v>158.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="18" customHeight="1">
+      <c r="S37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -7992,8 +8121,11 @@
       <c r="Q38" s="2">
         <v>111.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="18" customHeight="1">
+      <c r="S38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -8049,8 +8181,11 @@
       <c r="R39" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="18" customHeight="1">
+      <c r="S39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -8103,8 +8238,11 @@
       <c r="Q40" s="2">
         <v>398.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="18" customHeight="1">
+      <c r="S40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -8160,8 +8298,11 @@
       <c r="R41" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="18" customHeight="1">
+      <c r="S41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -8217,8 +8358,11 @@
       <c r="R42" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="18" customHeight="1">
+      <c r="S42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>129W</v>
@@ -8271,8 +8415,11 @@
       <c r="Q43" s="2">
         <v>476.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="18" customHeight="1">
+      <c r="S43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -8325,8 +8472,11 @@
       <c r="Q44" s="2">
         <v>303.60000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="18" customHeight="1">
+      <c r="S44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -8382,8 +8532,11 @@
       <c r="R45" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="18" customHeight="1">
+      <c r="S45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -8436,8 +8589,11 @@
       <c r="Q46" s="2">
         <v>9999</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="18" customHeight="1">
+      <c r="S46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -8490,8 +8646,11 @@
       <c r="Q47" s="2">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="18" customHeight="1">
+      <c r="S47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -8547,8 +8706,11 @@
       <c r="R48" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="18" customHeight="1">
+      <c r="S48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -8601,8 +8763,11 @@
       <c r="Q49" s="2">
         <v>292.10000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="18" customHeight="1">
+      <c r="S49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -8655,8 +8820,11 @@
       <c r="Q50" s="2">
         <v>237.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" ht="18" customHeight="1">
+      <c r="S50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -8712,8 +8880,11 @@
       <c r="R51" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" ht="18" customHeight="1">
+      <c r="S51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -8766,8 +8937,11 @@
       <c r="Q52" s="2">
         <v>496.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" ht="18" customHeight="1">
+      <c r="S52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -8820,8 +8994,11 @@
       <c r="Q53" s="2">
         <v>225.7</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" ht="18" customHeight="1">
+      <c r="S53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -8874,8 +9051,11 @@
       <c r="Q54" s="2">
         <v>221.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" ht="18" customHeight="1">
+      <c r="S54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -8928,8 +9108,11 @@
       <c r="Q55" s="2">
         <v>176.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" ht="18" customHeight="1">
+      <c r="S55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>004W</v>
@@ -8982,8 +9165,11 @@
       <c r="Q56" s="2">
         <v>728.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" ht="18" customHeight="1">
+      <c r="S56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -9039,8 +9225,11 @@
       <c r="R57" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" ht="18" customHeight="1">
+      <c r="S57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -9096,8 +9285,11 @@
       <c r="R58" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" ht="18" customHeight="1">
+      <c r="S58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>101W</v>
@@ -9150,8 +9342,11 @@
       <c r="Q59" s="2">
         <v>424.8</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" ht="18" customHeight="1">
+      <c r="S59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>101W</v>
@@ -9204,8 +9399,11 @@
       <c r="Q60" s="2">
         <v>936.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" ht="18" customHeight="1">
+      <c r="S60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9261,8 +9459,11 @@
       <c r="R61" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" ht="18" customHeight="1">
+      <c r="S61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9315,8 +9516,11 @@
       <c r="Q62" s="2">
         <v>161.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" ht="18" customHeight="1">
+      <c r="S62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9372,8 +9576,11 @@
       <c r="R63" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" ht="18" customHeight="1">
+      <c r="S63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9429,8 +9636,11 @@
       <c r="R64" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" ht="18" customHeight="1">
+      <c r="S64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9486,8 +9696,11 @@
       <c r="R65" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" ht="18" customHeight="1">
+      <c r="S65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9540,8 +9753,11 @@
       <c r="Q66" s="2">
         <v>537.20000000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" ht="18" customHeight="1">
+      <c r="S66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9594,8 +9810,11 @@
       <c r="Q67" s="2">
         <v>149.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" ht="18" customHeight="1">
+      <c r="S67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9651,8 +9870,11 @@
       <c r="R68" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" ht="18" customHeight="1">
+      <c r="S68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9708,8 +9930,11 @@
       <c r="R69" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" ht="18" customHeight="1">
+      <c r="S69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>119W</v>
@@ -9765,8 +9990,11 @@
       <c r="R70" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" ht="18" customHeight="1">
+      <c r="S70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9819,8 +10047,11 @@
       <c r="Q71" s="2">
         <v>394</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" ht="18" customHeight="1">
+      <c r="S71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9873,8 +10104,11 @@
       <c r="Q72" s="2">
         <v>114.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" ht="18" customHeight="1">
+      <c r="S72" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9927,8 +10161,11 @@
       <c r="Q73" s="2">
         <v>208.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="18" customHeight="1">
+      <c r="S73" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -9984,8 +10221,11 @@
       <c r="R74" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" ht="18" customHeight="1">
+      <c r="S74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -10038,8 +10278,11 @@
       <c r="Q75" s="2">
         <v>501.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" ht="18" customHeight="1">
+      <c r="S75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -10092,8 +10335,11 @@
       <c r="Q76" s="2">
         <v>296.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" ht="18" customHeight="1">
+      <c r="S76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -10146,8 +10392,11 @@
       <c r="Q77" s="2">
         <v>772.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" ht="18" customHeight="1">
+      <c r="S77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -10200,8 +10449,11 @@
       <c r="Q78" s="2">
         <v>607.70000000000005</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" ht="18" customHeight="1">
+      <c r="S78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -10257,8 +10509,11 @@
       <c r="R79" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" ht="18" customHeight="1">
+      <c r="S79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -10311,8 +10566,11 @@
       <c r="Q80" s="2">
         <v>193</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" ht="18" customHeight="1">
+      <c r="S80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -10365,8 +10623,11 @@
       <c r="Q81" s="2">
         <v>450.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" ht="18" customHeight="1">
+      <c r="S81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -10419,8 +10680,11 @@
       <c r="Q82" s="2">
         <v>338.8</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" ht="18" customHeight="1">
+      <c r="S82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>129W</v>
@@ -10476,8 +10740,11 @@
       <c r="R83" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" ht="18" customHeight="1">
+      <c r="S83" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10530,8 +10797,11 @@
       <c r="Q84" s="2">
         <v>717.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" ht="18" customHeight="1">
+      <c r="S84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10587,8 +10857,11 @@
       <c r="R85" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" ht="18" customHeight="1">
+      <c r="S85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10641,8 +10914,11 @@
       <c r="Q86" s="2">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" ht="18" customHeight="1">
+      <c r="S86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10695,8 +10971,11 @@
       <c r="Q87" s="2">
         <v>97.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" ht="18" customHeight="1">
+      <c r="S87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10749,8 +11028,11 @@
       <c r="Q88" s="2">
         <v>219.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" ht="18" customHeight="1">
+      <c r="S88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10803,8 +11085,11 @@
       <c r="Q89" s="2">
         <v>283</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" ht="18" customHeight="1">
+      <c r="S89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10857,8 +11142,11 @@
       <c r="Q90" s="2">
         <v>171.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" ht="18" customHeight="1">
+      <c r="S90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10911,8 +11199,11 @@
       <c r="Q91" s="2">
         <v>116.1</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" ht="18" customHeight="1">
+      <c r="S91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -10965,8 +11256,11 @@
       <c r="Q92" s="2">
         <v>162.19999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" ht="18" customHeight="1">
+      <c r="S92" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11022,8 +11316,11 @@
       <c r="R93" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" ht="18" customHeight="1">
+      <c r="S93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11079,8 +11376,11 @@
       <c r="R94" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" ht="18" customHeight="1">
+      <c r="S94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11133,8 +11433,11 @@
       <c r="Q95" s="2">
         <v>79.3</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" ht="18" customHeight="1">
+      <c r="S95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11187,8 +11490,11 @@
       <c r="Q96" s="2">
         <v>197.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" ht="18" customHeight="1">
+      <c r="S96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11241,8 +11547,11 @@
       <c r="Q97" s="2">
         <v>488.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" ht="18" customHeight="1">
+      <c r="S97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11298,8 +11607,11 @@
       <c r="R98" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" ht="18" customHeight="1">
+      <c r="S98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -11352,8 +11664,11 @@
       <c r="Q99" s="2">
         <v>390.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" ht="18" customHeight="1">
+      <c r="S99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -11406,8 +11721,11 @@
       <c r="Q100" s="2">
         <v>219</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" ht="18" customHeight="1">
+      <c r="S100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -11460,8 +11778,11 @@
       <c r="Q101" s="2">
         <v>94.7</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" ht="18" customHeight="1">
+      <c r="S101" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>062W</v>
@@ -11514,8 +11835,11 @@
       <c r="Q102" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" ht="18" customHeight="1">
+      <c r="S102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>062W</v>
@@ -11568,8 +11892,11 @@
       <c r="Q103" s="2">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" ht="18" customHeight="1">
+      <c r="S103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>004W</v>
@@ -11622,8 +11949,11 @@
       <c r="Q104" s="2">
         <v>267.8</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" ht="18" customHeight="1">
+      <c r="S104" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -11679,8 +12009,11 @@
       <c r="R105" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" ht="18" customHeight="1">
+      <c r="S105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -11736,8 +12069,11 @@
       <c r="R106" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" ht="18" customHeight="1">
+      <c r="S106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -11790,8 +12126,11 @@
       <c r="Q107" s="2">
         <v>9999</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" ht="18" customHeight="1">
+      <c r="S107" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>063W</v>
@@ -11844,8 +12183,11 @@
       <c r="Q108" s="2">
         <v>486.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" ht="18" customHeight="1">
+      <c r="S108" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>063W</v>
@@ -11901,8 +12243,11 @@
       <c r="R109" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" ht="18" customHeight="1">
+      <c r="S109" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>063W</v>
@@ -11955,8 +12300,11 @@
       <c r="Q110" s="2">
         <v>299</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" ht="18" customHeight="1">
+      <c r="S110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -12009,8 +12357,11 @@
       <c r="Q111" s="2">
         <v>205.1</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" ht="18" customHeight="1">
+      <c r="S111" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -12066,8 +12417,11 @@
       <c r="R112" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" ht="18" customHeight="1">
+      <c r="S112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -12120,8 +12474,11 @@
       <c r="Q113" s="2">
         <v>526.9</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" ht="18" customHeight="1">
+      <c r="S113" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -12177,8 +12534,11 @@
       <c r="R114" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" ht="18" customHeight="1">
+      <c r="S114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -12231,8 +12591,11 @@
       <c r="Q115" s="2">
         <v>142.4</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" ht="18" customHeight="1">
+      <c r="S115" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -12285,8 +12648,11 @@
       <c r="Q116" s="2">
         <v>175.4</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" ht="18" customHeight="1">
+      <c r="S116" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -12339,8 +12705,11 @@
       <c r="Q117" s="2">
         <v>92.2</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" ht="18" customHeight="1">
+      <c r="S117" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -12396,8 +12765,11 @@
       <c r="R118" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" ht="18" customHeight="1">
+      <c r="S118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -12453,8 +12825,11 @@
       <c r="R119" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" ht="18" customHeight="1">
+      <c r="S119" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>102A</v>
@@ -12510,8 +12885,11 @@
       <c r="R120" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" ht="18" customHeight="1">
+      <c r="S120" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -12567,8 +12945,11 @@
       <c r="R121" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" ht="18" customHeight="1">
+      <c r="S121" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -12621,8 +13002,11 @@
       <c r="Q122" s="2">
         <v>149.80000000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" ht="18" customHeight="1">
+      <c r="S122" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -12675,8 +13059,11 @@
       <c r="Q123" s="2">
         <v>265.60000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" ht="18" customHeight="1">
+      <c r="S123" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -12729,8 +13116,11 @@
       <c r="Q124" s="2">
         <v>175.2</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" ht="18" customHeight="1">
+      <c r="S124" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -12783,8 +13173,11 @@
       <c r="Q125" s="2">
         <v>195.9</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" ht="18" customHeight="1">
+      <c r="S125" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -12837,8 +13230,11 @@
       <c r="Q126" s="2">
         <v>583.79999999999995</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" ht="18" customHeight="1">
+      <c r="S126" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -12891,8 +13287,11 @@
       <c r="Q127" s="2">
         <v>388.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" ht="18" customHeight="1">
+      <c r="S127" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -12945,8 +13344,11 @@
       <c r="Q128" s="2">
         <v>254.8</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" ht="18" customHeight="1">
+      <c r="S128" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -13002,8 +13404,11 @@
       <c r="R129" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" ht="18" customHeight="1">
+      <c r="S129" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -13056,8 +13461,11 @@
       <c r="Q130" s="2">
         <v>368.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" ht="18" customHeight="1">
+      <c r="S130" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -13110,8 +13518,11 @@
       <c r="Q131" s="2">
         <v>456.4</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" ht="18" customHeight="1">
+      <c r="S131" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -13164,8 +13575,11 @@
       <c r="Q132" s="2">
         <v>349.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" ht="18" customHeight="1">
+      <c r="S132" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -13221,8 +13635,11 @@
       <c r="R133" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" ht="18" customHeight="1">
+      <c r="S133" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -13275,8 +13692,11 @@
       <c r="Q134" s="2">
         <v>601</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" ht="18" customHeight="1">
+      <c r="S134" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -13329,8 +13749,11 @@
       <c r="Q135" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" ht="18" customHeight="1">
+      <c r="S135" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -13383,8 +13806,11 @@
       <c r="Q136" s="2">
         <v>190.2</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" ht="18" customHeight="1">
+      <c r="S136" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -13437,8 +13863,11 @@
       <c r="Q137" s="2">
         <v>788.8</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" ht="18" customHeight="1">
+      <c r="S137" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -13491,8 +13920,11 @@
       <c r="Q138" s="2">
         <v>89.8</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" ht="18" customHeight="1">
+      <c r="S138" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -13545,8 +13977,11 @@
       <c r="Q139" s="2">
         <v>62.1</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" ht="18" customHeight="1">
+      <c r="S139" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -13599,8 +14034,11 @@
       <c r="Q140" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" ht="18" customHeight="1">
+      <c r="S140" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -13653,8 +14091,11 @@
       <c r="Q141" s="2">
         <v>9999</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" ht="18" customHeight="1">
+      <c r="S141" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -13707,8 +14148,11 @@
       <c r="Q142" s="2">
         <v>156.4</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" ht="18" customHeight="1">
+      <c r="S142" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -13764,8 +14208,11 @@
       <c r="R143" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" ht="18" customHeight="1">
+      <c r="S143" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -13818,8 +14265,11 @@
       <c r="Q144" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" ht="18" customHeight="1">
+      <c r="S144" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -13875,8 +14325,11 @@
       <c r="R145" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" ht="18" customHeight="1">
+      <c r="S145" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -13929,8 +14382,11 @@
       <c r="Q146" s="2">
         <v>70.599999999999994</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" ht="18" customHeight="1">
+      <c r="S146" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>101W</v>
@@ -13986,8 +14442,11 @@
       <c r="R147" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" ht="18" customHeight="1">
+      <c r="S147" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -14040,8 +14499,11 @@
       <c r="Q148" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" ht="18" customHeight="1">
+      <c r="S148" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>129W</v>
@@ -14097,8 +14559,11 @@
       <c r="R149" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" ht="18" customHeight="1">
+      <c r="S149" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>119W</v>
@@ -14151,8 +14616,11 @@
       <c r="Q150" s="2">
         <v>44.7</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" ht="18" customHeight="1">
+      <c r="S150" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>119W</v>
@@ -14205,8 +14673,11 @@
       <c r="Q151" s="2">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" ht="18" customHeight="1">
+      <c r="S151" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -14262,8 +14733,11 @@
       <c r="R152" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" ht="18" customHeight="1">
+      <c r="S152" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -14319,8 +14793,11 @@
       <c r="R153" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" ht="18" customHeight="1">
+      <c r="S153" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14373,8 +14850,11 @@
       <c r="Q154" s="2">
         <v>156.4</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" ht="18" customHeight="1">
+      <c r="S154" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14427,8 +14907,11 @@
       <c r="Q155" s="2">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" ht="18" customHeight="1">
+      <c r="S155" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14481,8 +14964,11 @@
       <c r="Q156" s="2">
         <v>144.69999999999999</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" ht="18" customHeight="1">
+      <c r="S156" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14535,8 +15021,11 @@
       <c r="Q157" s="2">
         <v>241</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" ht="18" customHeight="1">
+      <c r="S157" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14589,8 +15078,11 @@
       <c r="Q158" s="2">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" ht="18" customHeight="1">
+      <c r="S158" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14643,8 +15135,11 @@
       <c r="Q159" s="2">
         <v>133.1</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" ht="18" customHeight="1">
+      <c r="S159" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14700,8 +15195,11 @@
       <c r="R160" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" ht="18" customHeight="1">
+      <c r="S160" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14757,8 +15255,11 @@
       <c r="R161" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" ht="18" customHeight="1">
+      <c r="S161" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14814,8 +15315,11 @@
       <c r="R162" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" ht="18" customHeight="1">
+      <c r="S162" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14868,8 +15372,11 @@
       <c r="Q163" s="2">
         <v>67.599999999999994</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" ht="18" customHeight="1">
+      <c r="S163" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14922,8 +15429,11 @@
       <c r="Q164" s="2">
         <v>73.400000000000006</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" ht="18" customHeight="1">
+      <c r="S164" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -14979,8 +15489,11 @@
       <c r="R165" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" ht="18" customHeight="1">
+      <c r="S165" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15033,8 +15546,11 @@
       <c r="Q166" s="2">
         <v>58.8</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" ht="18" customHeight="1">
+      <c r="S166" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15087,8 +15603,11 @@
       <c r="Q167" s="2">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" ht="18" customHeight="1">
+      <c r="S167" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15144,8 +15663,11 @@
       <c r="R168" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" ht="18" customHeight="1">
+      <c r="S168" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15198,8 +15720,11 @@
       <c r="Q169" s="2">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" ht="18" customHeight="1">
+      <c r="S169" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15252,8 +15777,11 @@
       <c r="Q170" s="2">
         <v>107.7</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" ht="18" customHeight="1">
+      <c r="S170" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15309,8 +15837,11 @@
       <c r="R171" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" ht="18" customHeight="1">
+      <c r="S171" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15366,8 +15897,11 @@
       <c r="R172" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" ht="18" customHeight="1">
+      <c r="S172" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15423,8 +15957,11 @@
       <c r="R173" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" ht="18" customHeight="1">
+      <c r="S173" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15477,8 +16014,11 @@
       <c r="Q174" s="2">
         <v>37.9</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" ht="18" customHeight="1">
+      <c r="S174" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15534,8 +16074,11 @@
       <c r="R175" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" ht="18" customHeight="1">
+      <c r="S175" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -15588,8 +16131,11 @@
       <c r="Q176" s="2">
         <v>250.2</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" ht="18" customHeight="1">
+      <c r="S176" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -15642,8 +16188,11 @@
       <c r="Q177" s="2">
         <v>86.6</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" ht="18" customHeight="1">
+      <c r="S177" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -15696,8 +16245,11 @@
       <c r="Q178" s="2">
         <v>9999</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" ht="18" customHeight="1">
+      <c r="S178" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15750,8 +16302,11 @@
       <c r="Q179" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" ht="18" customHeight="1">
+      <c r="S179" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -15804,8 +16359,11 @@
       <c r="Q180" s="2">
         <v>147.6</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" ht="18" customHeight="1">
+      <c r="S180" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -15858,8 +16416,11 @@
       <c r="Q181" s="2">
         <v>9999</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" ht="18" customHeight="1">
+      <c r="S181" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>063W</v>
@@ -15915,8 +16476,11 @@
       <c r="R182" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" ht="18" customHeight="1">
+      <c r="S182" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -15972,8 +16536,11 @@
       <c r="R183" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" ht="18" customHeight="1">
+      <c r="S183" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -16029,8 +16596,11 @@
       <c r="R184" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" ht="18" customHeight="1">
+      <c r="S184" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -16083,8 +16653,11 @@
       <c r="Q185" s="2">
         <v>199.6</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" ht="18" customHeight="1">
+      <c r="S185" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -16137,8 +16710,11 @@
       <c r="Q186" s="2">
         <v>65.3</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" ht="18" customHeight="1">
+      <c r="S186" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>102A</v>
@@ -16194,8 +16770,11 @@
       <c r="R187" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" ht="18" customHeight="1">
+      <c r="S187" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>062W</v>
@@ -16248,8 +16827,11 @@
       <c r="Q188" s="2">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" ht="18" customHeight="1">
+      <c r="S188" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -16302,8 +16884,11 @@
       <c r="Q189" s="2">
         <v>74.8</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" ht="18" customHeight="1">
+      <c r="S189" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>001W</v>
@@ -16359,8 +16944,11 @@
       <c r="R190" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" ht="18" customHeight="1">
+      <c r="S190" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -16416,8 +17004,11 @@
       <c r="R191" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" ht="18" customHeight="1">
+      <c r="S191" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -16470,8 +17061,11 @@
       <c r="Q192" s="2">
         <v>157.9</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" ht="18" customHeight="1">
+      <c r="S192" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -16527,8 +17121,11 @@
       <c r="R193" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" ht="18" customHeight="1">
+      <c r="S193" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -16584,8 +17181,11 @@
       <c r="R194" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" ht="18" customHeight="1">
+      <c r="S194" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -16641,8 +17241,11 @@
       <c r="R195" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" ht="18" customHeight="1">
+      <c r="S195" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -16695,8 +17298,11 @@
       <c r="Q196" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" ht="18" customHeight="1">
+      <c r="S196" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -16749,8 +17355,11 @@
       <c r="Q197" s="2">
         <v>47.6</v>
       </c>
-    </row>
-    <row r="198" spans="1:18" ht="18" customHeight="1">
+      <c r="S197" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>119W</v>
@@ -16806,8 +17415,11 @@
       <c r="R198" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" ht="18" customHeight="1">
+      <c r="S198" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -16861,8 +17473,11 @@
         <v>50</v>
       </c>
       <c r="R199" s="2"/>
-    </row>
-    <row r="200" spans="1:18" ht="18" customHeight="1">
+      <c r="S199" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -16915,8 +17530,11 @@
       <c r="Q200" s="2">
         <v>287.8</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" ht="18" customHeight="1">
+      <c r="S200" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>062W</v>
@@ -16972,8 +17590,11 @@
       <c r="R201" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" ht="18" customHeight="1">
+      <c r="S201" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -17029,8 +17650,11 @@
       <c r="R202" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="203" spans="1:18" ht="18" customHeight="1">
+      <c r="S202" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -17086,8 +17710,11 @@
       <c r="R203" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="204" spans="1:18" ht="18" customHeight="1">
+      <c r="S203" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -17143,8 +17770,11 @@
       <c r="R204" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="205" spans="1:18" ht="18" customHeight="1">
+      <c r="S204" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>064W</v>
@@ -17200,8 +17830,11 @@
       <c r="R205" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:18" ht="18" customHeight="1">
+      <c r="S205" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -17254,8 +17887,11 @@
       <c r="Q206" s="2">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" ht="18" customHeight="1">
+      <c r="S206" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -17311,8 +17947,11 @@
       <c r="R207" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" ht="18" customHeight="1">
+      <c r="S207" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>063W</v>
@@ -17368,8 +18007,11 @@
       <c r="R208" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="209" spans="1:18" ht="18" customHeight="1">
+      <c r="S208" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>063W</v>
@@ -17425,8 +18067,11 @@
       <c r="R209" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="210" spans="1:18" ht="18" customHeight="1">
+      <c r="S209" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -17482,8 +18127,11 @@
       <c r="R210" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="211" spans="1:18" ht="18" customHeight="1">
+      <c r="S210" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -17539,8 +18187,11 @@
       <c r="R211" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="212" spans="1:18" ht="18" customHeight="1">
+      <c r="S211" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -17596,8 +18247,11 @@
       <c r="R212" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="213" spans="1:18" ht="18" customHeight="1">
+      <c r="S212" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -17653,8 +18307,11 @@
       <c r="R213" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="214" spans="1:18" ht="18" customHeight="1">
+      <c r="S213" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -17707,8 +18364,11 @@
       <c r="Q214" s="2">
         <v>890.1</v>
       </c>
-    </row>
-    <row r="215" spans="1:18" ht="18" customHeight="1">
+      <c r="S214" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -17761,8 +18421,11 @@
       <c r="Q215" s="2">
         <v>182.7</v>
       </c>
-    </row>
-    <row r="216" spans="1:18" ht="18" customHeight="1">
+      <c r="S215" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -17815,8 +18478,11 @@
       <c r="Q216" s="2">
         <v>550</v>
       </c>
-    </row>
-    <row r="217" spans="1:18" ht="18" customHeight="1">
+      <c r="S216" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -17872,8 +18538,11 @@
       <c r="R217" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="218" spans="1:18" ht="18" customHeight="1">
+      <c r="S217" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -17926,8 +18595,11 @@
       <c r="Q218" s="2">
         <v>453.7</v>
       </c>
-    </row>
-    <row r="219" spans="1:18" ht="18" customHeight="1">
+      <c r="S218" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -17980,8 +18652,11 @@
       <c r="Q219" s="2">
         <v>774.3</v>
       </c>
-    </row>
-    <row r="220" spans="1:18" ht="18" customHeight="1">
+      <c r="S219" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>119W</v>
@@ -18037,8 +18712,11 @@
       <c r="R220" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="221" spans="1:18" ht="18" customHeight="1">
+      <c r="S220" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -18094,8 +18772,11 @@
       <c r="R221" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="222" spans="1:18" ht="18" customHeight="1">
+      <c r="S221" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -18151,8 +18832,11 @@
       <c r="R222" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="223" spans="1:18" ht="18" customHeight="1">
+      <c r="S222" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -18205,8 +18889,11 @@
       <c r="Q223" s="2">
         <v>513.9</v>
       </c>
-    </row>
-    <row r="224" spans="1:18" ht="18" customHeight="1">
+      <c r="S223" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -18262,8 +18949,11 @@
       <c r="R224" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="225" spans="1:18" ht="18" customHeight="1">
+      <c r="S224" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>093W</v>
@@ -18316,8 +19006,11 @@
       <c r="Q225" s="2">
         <v>239.3</v>
       </c>
-    </row>
-    <row r="226" spans="1:18" ht="18" customHeight="1">
+      <c r="S225" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>102A</v>
@@ -18370,8 +19063,11 @@
       <c r="Q226" s="2">
         <v>680.2</v>
       </c>
-    </row>
-    <row r="227" spans="1:18" ht="18" customHeight="1">
+      <c r="S226" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -18427,8 +19123,11 @@
       <c r="R227" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:18" ht="18" customHeight="1">
+      <c r="S227" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -18484,8 +19183,11 @@
       <c r="R228" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:18" ht="18" customHeight="1">
+      <c r="S228" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>083W</v>
@@ -18538,8 +19240,11 @@
       <c r="Q229" s="2">
         <v>501.4</v>
       </c>
-    </row>
-    <row r="230" spans="1:18" ht="18" customHeight="1">
+      <c r="S229" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -18592,8 +19297,11 @@
       <c r="Q230" s="2">
         <v>142.1</v>
       </c>
-    </row>
-    <row r="231" spans="1:18" ht="18" customHeight="1">
+      <c r="S230" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -18646,8 +19354,11 @@
       <c r="Q231" s="2">
         <v>121.8</v>
       </c>
-    </row>
-    <row r="232" spans="1:18" ht="18" customHeight="1">
+      <c r="S231" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>084W</v>
@@ -18703,8 +19414,11 @@
       <c r="R232" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="233" spans="1:18" ht="18" customHeight="1">
+      <c r="S232" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -18757,8 +19471,11 @@
       <c r="Q233" s="2">
         <v>235</v>
       </c>
-    </row>
-    <row r="234" spans="1:18" ht="18" customHeight="1">
+      <c r="S233" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -18811,8 +19528,11 @@
       <c r="Q234" s="2">
         <v>302.8</v>
       </c>
-    </row>
-    <row r="235" spans="1:18" ht="18" customHeight="1">
+      <c r="S234" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -18865,8 +19585,11 @@
       <c r="Q235" s="2">
         <v>242.8</v>
       </c>
-    </row>
-    <row r="236" spans="1:18" ht="18" customHeight="1">
+      <c r="S235" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -18922,8 +19645,11 @@
       <c r="R236" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="237" spans="1:18" ht="18" customHeight="1">
+      <c r="S236" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -18976,8 +19702,11 @@
       <c r="Q237" s="2">
         <v>548.79999999999995</v>
       </c>
-    </row>
-    <row r="238" spans="1:18" ht="18" customHeight="1">
+      <c r="S237" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -19033,8 +19762,11 @@
       <c r="R238" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="239" spans="1:18" ht="18" customHeight="1">
+      <c r="S238" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>101W</v>
@@ -19087,8 +19819,11 @@
       <c r="Q239" s="2">
         <v>393.6</v>
       </c>
-    </row>
-    <row r="240" spans="1:18" ht="18" customHeight="1">
+      <c r="S239" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>101W</v>
@@ -19141,8 +19876,11 @@
       <c r="Q240" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="241" spans="1:18" ht="18" customHeight="1">
+      <c r="S240" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -19198,8 +19936,11 @@
       <c r="R241" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="242" spans="1:18" ht="18" customHeight="1">
+      <c r="S241" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -19255,8 +19996,11 @@
       <c r="R242" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="243" spans="1:18" ht="18" customHeight="1">
+      <c r="S242" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -19309,8 +20053,11 @@
       <c r="Q243" s="2">
         <v>9999</v>
       </c>
-    </row>
-    <row r="244" spans="1:18" ht="18" customHeight="1">
+      <c r="S243" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>100W</v>
@@ -19363,8 +20110,11 @@
       <c r="Q244" s="2">
         <v>762.4</v>
       </c>
-    </row>
-    <row r="245" spans="1:18" ht="18" customHeight="1">
+      <c r="S244" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -19417,8 +20167,11 @@
       <c r="Q245" s="2">
         <v>629</v>
       </c>
-    </row>
-    <row r="246" spans="1:18" ht="18" customHeight="1">
+      <c r="S245" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>091W</v>
@@ -19474,8 +20227,11 @@
       <c r="R246" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:18" ht="18" customHeight="1">
+      <c r="S246" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -19528,8 +20284,11 @@
       <c r="Q247" s="2">
         <v>254.3</v>
       </c>
-    </row>
-    <row r="248" spans="1:18" ht="18" customHeight="1">
+      <c r="S247" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -19582,8 +20341,11 @@
       <c r="Q248" s="2">
         <v>146.9</v>
       </c>
-    </row>
-    <row r="249" spans="1:18" ht="18" customHeight="1">
+      <c r="S248" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -19636,8 +20398,11 @@
       <c r="Q249" s="2">
         <v>132.1</v>
       </c>
-    </row>
-    <row r="250" spans="1:18" ht="18" customHeight="1">
+      <c r="S249" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -19693,8 +20458,11 @@
       <c r="R250" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:18" ht="18" customHeight="1">
+      <c r="S250" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -19747,8 +20515,11 @@
       <c r="Q251" s="2">
         <v>42.7</v>
       </c>
-    </row>
-    <row r="252" spans="1:18" ht="18" customHeight="1">
+      <c r="S251" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -19801,8 +20572,11 @@
       <c r="Q252" s="2">
         <v>134.19999999999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:18" ht="18" customHeight="1">
+      <c r="S252" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -19855,8 +20629,11 @@
       <c r="Q253" s="2">
         <v>136.19999999999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:18" ht="18" customHeight="1">
+      <c r="S253" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -19909,8 +20686,11 @@
       <c r="Q254" s="2">
         <v>448.8</v>
       </c>
-    </row>
-    <row r="255" spans="1:18" ht="18" customHeight="1">
+      <c r="S254" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>064W</v>
@@ -19966,8 +20746,11 @@
       <c r="R255" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="256" spans="1:18" ht="18" customHeight="1">
+      <c r="S255" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -20020,8 +20803,11 @@
       <c r="Q256" s="2">
         <v>243.5</v>
       </c>
-    </row>
-    <row r="257" spans="1:18" ht="18" customHeight="1">
+      <c r="S256" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>004W</v>
@@ -20074,8 +20860,11 @@
       <c r="Q257" s="2">
         <v>313.10000000000002</v>
       </c>
-    </row>
-    <row r="258" spans="1:18" ht="18" customHeight="1">
+      <c r="S257" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -20128,8 +20917,11 @@
       <c r="Q258" s="2">
         <v>251.9</v>
       </c>
-    </row>
-    <row r="259" spans="1:18" ht="18" customHeight="1">
+      <c r="S258" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -20182,8 +20974,11 @@
       <c r="Q259" s="2">
         <v>114.4</v>
       </c>
-    </row>
-    <row r="260" spans="1:18" ht="18" customHeight="1">
+      <c r="S259" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>127W</v>
@@ -20239,8 +21034,11 @@
       <c r="R260" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="261" spans="1:18" ht="18" customHeight="1">
+      <c r="S260" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -20296,8 +21094,11 @@
       <c r="R261" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="262" spans="1:18" ht="18" customHeight="1">
+      <c r="S261" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -20350,8 +21151,11 @@
       <c r="Q262" s="2">
         <v>254.8</v>
       </c>
-    </row>
-    <row r="263" spans="1:18" ht="18" customHeight="1">
+      <c r="S262" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -20404,8 +21208,11 @@
       <c r="Q263" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="264" spans="1:18" ht="18" customHeight="1">
+      <c r="S263" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -20458,8 +21265,11 @@
       <c r="Q264" s="2">
         <v>530</v>
       </c>
-    </row>
-    <row r="265" spans="1:18" ht="18" customHeight="1">
+      <c r="S264" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>082W</v>
@@ -20515,8 +21325,11 @@
       <c r="R265" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="266" spans="1:18" ht="18" customHeight="1">
+      <c r="S265" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>090W</v>
@@ -20572,8 +21385,11 @@
       <c r="R266" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="267" spans="1:18" ht="14">
+      <c r="S266" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -20627,7 +21443,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="14">
+    <row r="268" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -20684,7 +21500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="14">
+    <row r="269" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -20738,7 +21554,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="14">
+    <row r="270" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -20792,7 +21608,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="14">
+    <row r="271" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -20846,7 +21662,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="14">
+    <row r="272" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -20903,7 +21719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:18" ht="14">
+    <row r="273" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -20960,7 +21776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:18" ht="14">
+    <row r="274" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21017,7 +21833,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="275" spans="1:18" ht="14">
+    <row r="275" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21071,7 +21887,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="276" spans="1:18" ht="14">
+    <row r="276" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21125,7 +21941,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="277" spans="1:18" ht="14">
+    <row r="277" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21179,7 +21995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:18" ht="14">
+    <row r="278" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21236,7 +22052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:18" ht="14">
+    <row r="279" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21293,7 +22109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:18" ht="14">
+    <row r="280" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21347,7 +22163,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:18" ht="14">
+    <row r="281" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21404,7 +22220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:18" ht="18" customHeight="1">
+    <row r="282" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21460,8 +22276,11 @@
       <c r="R282" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="283" spans="1:18" ht="18" customHeight="1">
+      <c r="S282" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21517,8 +22336,11 @@
       <c r="R283" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="284" spans="1:18" ht="18" customHeight="1">
+      <c r="S283" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21574,8 +22396,11 @@
       <c r="R284" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="285" spans="1:18" ht="18" customHeight="1">
+      <c r="S284" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21631,8 +22456,11 @@
       <c r="R285" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="286" spans="1:18" ht="18" customHeight="1">
+      <c r="S285" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21688,8 +22516,11 @@
       <c r="R286" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="287" spans="1:18" ht="18" customHeight="1">
+      <c r="S286" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21745,8 +22576,11 @@
       <c r="R287" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="288" spans="1:18" ht="14">
+      <c r="S287" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21803,7 +22637,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="289" spans="1:18" ht="14">
+    <row r="289" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21857,7 +22691,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="290" spans="1:18" ht="14">
+    <row r="290" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21914,7 +22748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:18" ht="14">
+    <row r="291" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -21971,7 +22805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:18" ht="14">
+    <row r="292" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22028,7 +22862,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="293" spans="1:18" ht="14">
+    <row r="293" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22085,7 +22919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:18" ht="14">
+    <row r="294" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22139,7 +22973,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="295" spans="1:18" ht="14">
+    <row r="295" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22196,7 +23030,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="296" spans="1:18" ht="14">
+    <row r="296" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22250,7 +23084,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="297" spans="1:18" ht="14">
+    <row r="297" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22307,7 +23141,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="298" spans="1:18" ht="14">
+    <row r="298" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22361,7 +23195,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="299" spans="1:18" ht="14">
+    <row r="299" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22415,7 +23249,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="300" spans="1:18" ht="14">
+    <row r="300" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22472,7 +23306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:18" ht="14">
+    <row r="301" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22529,7 +23363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:18" ht="14">
+    <row r="302" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22586,7 +23420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:18" ht="14">
+    <row r="303" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22640,7 +23474,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="304" spans="1:18" ht="14">
+    <row r="304" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22697,7 +23531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:18" ht="14">
+    <row r="305" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22754,7 +23588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:18" ht="14">
+    <row r="306" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22811,7 +23645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:18" ht="14">
+    <row r="307" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22865,7 +23699,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="308" spans="1:18" ht="14">
+    <row r="308" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22919,7 +23753,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:18" ht="14">
+    <row r="309" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -22973,7 +23807,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="310" spans="1:18" ht="14">
+    <row r="310" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23027,7 +23861,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="311" spans="1:18" ht="14">
+    <row r="311" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23081,7 +23915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:18" ht="14">
+    <row r="312" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23135,7 +23969,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="313" spans="1:18" ht="14">
+    <row r="313" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23192,7 +24026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:18" ht="14">
+    <row r="314" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23249,7 +24083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:18" ht="14">
+    <row r="315" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23306,7 +24140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:18" ht="14">
+    <row r="316" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23363,7 +24197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:18" ht="14">
+    <row r="317" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23417,7 +24251,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="318" spans="1:18" ht="14">
+    <row r="318" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23471,7 +24305,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="319" spans="1:18" ht="14">
+    <row r="319" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23525,7 +24359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:18" ht="14">
+    <row r="320" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23579,7 +24413,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="321" spans="1:18" ht="14">
+    <row r="321" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23633,7 +24467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" ht="14">
+    <row r="322" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23690,7 +24524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:18" ht="14">
+    <row r="323" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23747,7 +24581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:18" ht="14">
+    <row r="324" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23804,7 +24638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:18" ht="14">
+    <row r="325" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23861,7 +24695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:18" ht="14">
+    <row r="326" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23918,7 +24752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:18" ht="14">
+    <row r="327" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -23972,7 +24806,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="328" spans="1:18" ht="14">
+    <row r="328" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24029,7 +24863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:18" ht="14">
+    <row r="329" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24083,7 +24917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:18" ht="14">
+    <row r="330" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24137,7 +24971,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:18" ht="14">
+    <row r="331" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24191,7 +25025,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="332" spans="1:18" ht="14">
+    <row r="332" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24248,7 +25082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:18" ht="14">
+    <row r="333" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24305,7 +25139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:18" ht="14">
+    <row r="334" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24359,7 +25193,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="335" spans="1:18" ht="14">
+    <row r="335" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24413,7 +25247,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="336" spans="1:18" ht="14">
+    <row r="336" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24470,7 +25304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:18" ht="14">
+    <row r="337" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24524,7 +25358,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="338" spans="1:18" ht="14">
+    <row r="338" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24581,7 +25415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:18" ht="14">
+    <row r="339" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24635,7 +25469,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="340" spans="1:18" ht="14">
+    <row r="340" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24689,7 +25523,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="341" spans="1:18" ht="14">
+    <row r="341" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24746,7 +25580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:18" ht="14">
+    <row r="342" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24800,7 +25634,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="343" spans="1:18" ht="14">
+    <row r="343" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24857,7 +25691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:18" ht="14">
+    <row r="344" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24914,7 +25748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:18" ht="14">
+    <row r="345" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -24971,7 +25805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:18" ht="14">
+    <row r="346" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25025,7 +25859,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="347" spans="1:18" ht="14">
+    <row r="347" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25082,7 +25916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:18" ht="14">
+    <row r="348" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25136,7 +25970,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="349" spans="1:18" ht="14">
+    <row r="349" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25193,7 +26027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:18" ht="14">
+    <row r="350" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25247,7 +26081,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="351" spans="1:18" ht="14">
+    <row r="351" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25301,7 +26135,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="352" spans="1:18" ht="14">
+    <row r="352" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25358,7 +26192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:18" ht="14">
+    <row r="353" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25412,7 +26246,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="354" spans="1:18" ht="14">
+    <row r="354" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25469,7 +26303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:18" ht="14">
+    <row r="355" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25523,7 +26357,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="356" spans="1:18" ht="14">
+    <row r="356" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25580,7 +26414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:18" ht="14">
+    <row r="357" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25634,7 +26468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:18" ht="14">
+    <row r="358" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25691,7 +26525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:18" ht="14">
+    <row r="359" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25748,7 +26582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:18" ht="14">
+    <row r="360" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25805,7 +26639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:18" ht="14">
+    <row r="361" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25862,7 +26696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:18" ht="14">
+    <row r="362" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25919,7 +26753,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="363" spans="1:18" ht="14">
+    <row r="363" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -25976,7 +26810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:18" ht="14">
+    <row r="364" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26030,7 +26864,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="365" spans="1:18" ht="14">
+    <row r="365" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26084,7 +26918,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="366" spans="1:18" ht="14">
+    <row r="366" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26141,7 +26975,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="367" spans="1:18" ht="14">
+    <row r="367" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26195,7 +27029,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="368" spans="1:18" ht="14">
+    <row r="368" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26252,7 +27086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="369" spans="1:18" ht="14">
+    <row r="369" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26309,7 +27143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:18" ht="14">
+    <row r="370" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26363,7 +27197,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="371" spans="1:18" ht="14">
+    <row r="371" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26417,7 +27251,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="372" spans="1:18" ht="14">
+    <row r="372" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26471,7 +27305,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="373" spans="1:18" ht="14">
+    <row r="373" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26525,7 +27359,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="374" spans="1:18" ht="14">
+    <row r="374" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26579,7 +27413,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="375" spans="1:18" ht="14">
+    <row r="375" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26636,7 +27470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:18" ht="14">
+    <row r="376" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26693,7 +27527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:18" ht="14">
+    <row r="377" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26747,7 +27581,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="378" spans="1:18" ht="14">
+    <row r="378" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26804,7 +27638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:18" ht="14">
+    <row r="379" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26861,7 +27695,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="380" spans="1:18" ht="14">
+    <row r="380" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26915,7 +27749,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="381" spans="1:18" ht="14">
+    <row r="381" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -26969,7 +27803,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="382" spans="1:18" ht="14">
+    <row r="382" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27026,7 +27860,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="383" spans="1:18" ht="14">
+    <row r="383" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27080,7 +27914,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="384" spans="1:18" ht="14">
+    <row r="384" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27137,7 +27971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="385" spans="1:18" ht="14">
+    <row r="385" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27191,7 +28025,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="386" spans="1:18" ht="14">
+    <row r="386" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27248,7 +28082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:18" ht="14">
+    <row r="387" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27305,7 +28139,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="388" spans="1:18" ht="14">
+    <row r="388" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27359,7 +28193,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="389" spans="1:18" ht="14">
+    <row r="389" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27416,7 +28250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:18" ht="14">
+    <row r="390" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27473,7 +28307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:18" ht="14">
+    <row r="391" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27527,7 +28361,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="392" spans="1:18" ht="14">
+    <row r="392" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27581,7 +28415,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="393" spans="1:18" ht="14">
+    <row r="393" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27635,7 +28469,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="394" spans="1:18" ht="14">
+    <row r="394" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27692,7 +28526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:18" ht="14">
+    <row r="395" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27749,7 +28583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:18" ht="14">
+    <row r="396" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27806,7 +28640,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="397" spans="1:18" ht="14">
+    <row r="397" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27860,7 +28694,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="398" spans="1:18" ht="14">
+    <row r="398" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27917,7 +28751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:18" ht="14">
+    <row r="399" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -27974,7 +28808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:18" ht="14">
+    <row r="400" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28028,7 +28862,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="401" spans="1:18" ht="18" customHeight="1">
+    <row r="401" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28081,8 +28915,11 @@
       <c r="Q401" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="402" spans="1:18" ht="14">
+      <c r="S401" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28136,7 +28973,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="403" spans="1:18" ht="14">
+    <row r="403" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28193,7 +29030,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="404" spans="1:18" ht="14">
+    <row r="404" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28247,7 +29084,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="405" spans="1:18" ht="18" customHeight="1">
+    <row r="405" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28303,8 +29140,11 @@
       <c r="R405" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="406" spans="1:18" ht="14">
+      <c r="S405" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28361,7 +29201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:18" ht="14">
+    <row r="407" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28415,7 +29255,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="408" spans="1:18" ht="14">
+    <row r="408" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28472,7 +29312,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="409" spans="1:18" ht="14">
+    <row r="409" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28529,7 +29369,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="410" spans="1:18" ht="14">
+    <row r="410" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28586,7 +29426,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="411" spans="1:18" ht="14">
+    <row r="411" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28643,7 +29483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="412" spans="1:18" ht="14">
+    <row r="412" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28697,7 +29537,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="413" spans="1:18" ht="14">
+    <row r="413" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28754,7 +29594,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="414" spans="1:18" ht="14">
+    <row r="414" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28811,7 +29651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="1:18" ht="14">
+    <row r="415" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28865,7 +29705,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="416" spans="1:18" ht="14">
+    <row r="416" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28919,7 +29759,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="417" spans="1:18" ht="14">
+    <row r="417" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -28976,7 +29816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="418" spans="1:18" ht="14">
+    <row r="418" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29030,7 +29870,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="419" spans="1:18" ht="14">
+    <row r="419" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29084,7 +29924,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="420" spans="1:18" ht="14">
+    <row r="420" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29138,7 +29978,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="421" spans="1:18" ht="14">
+    <row r="421" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29195,7 +30035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="422" spans="1:18" ht="14">
+    <row r="422" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29249,7 +30089,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="423" spans="1:18" ht="14">
+    <row r="423" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29303,7 +30143,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:18" ht="14">
+    <row r="424" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29360,7 +30200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:18" ht="14">
+    <row r="425" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29417,7 +30257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:18" ht="14">
+    <row r="426" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29471,7 +30311,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="427" spans="1:18" ht="14">
+    <row r="427" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29525,7 +30365,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="428" spans="1:18" ht="14">
+    <row r="428" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29579,7 +30419,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="429" spans="1:18" ht="18" customHeight="1">
+    <row r="429" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29635,8 +30475,11 @@
       <c r="R429" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="430" spans="1:18" ht="18" customHeight="1">
+      <c r="S429" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29692,8 +30535,11 @@
       <c r="R430" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="431" spans="1:18" ht="18" customHeight="1">
+      <c r="S430" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29749,8 +30595,11 @@
       <c r="R431" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="432" spans="1:18" ht="18" customHeight="1">
+      <c r="S431" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29806,8 +30655,11 @@
       <c r="R432" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="433" spans="1:18" ht="18" customHeight="1">
+      <c r="S432" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29863,8 +30715,11 @@
       <c r="R433" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="434" spans="1:18" ht="14">
+      <c r="S433" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29921,7 +30776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="435" spans="1:18" ht="14">
+    <row r="435" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -29978,7 +30833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="436" spans="1:18" ht="14">
+    <row r="436" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30035,7 +30890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="437" spans="1:18" ht="14">
+    <row r="437" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30092,7 +30947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="438" spans="1:18" ht="18" customHeight="1">
+    <row r="438" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30148,8 +31003,11 @@
       <c r="R438" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="439" spans="1:18" ht="14">
+      <c r="S438" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30203,7 +31061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:18" ht="14">
+    <row r="440" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30260,7 +31118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:18" ht="14">
+    <row r="441" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30314,7 +31172,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="442" spans="1:18" ht="14">
+    <row r="442" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30371,7 +31229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:18" ht="14">
+    <row r="443" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30428,7 +31286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:18" ht="14">
+    <row r="444" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30485,7 +31343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:18" ht="14">
+    <row r="445" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30542,7 +31400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:18" ht="14">
+    <row r="446" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30599,7 +31457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:18" ht="14">
+    <row r="447" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30656,7 +31514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:18" ht="14">
+    <row r="448" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30710,7 +31568,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="449" spans="1:18" ht="14">
+    <row r="449" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30764,7 +31622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="450" spans="1:18" ht="14">
+    <row r="450" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30821,7 +31679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:18" ht="14">
+    <row r="451" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30875,7 +31733,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:18" ht="14">
+    <row r="452" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30929,7 +31787,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="453" spans="1:18" ht="14">
+    <row r="453" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -30986,7 +31844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:18" ht="14">
+    <row r="454" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31040,7 +31898,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="455" spans="1:18" ht="14">
+    <row r="455" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31097,7 +31955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:18" ht="14">
+    <row r="456" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31151,7 +32009,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="457" spans="1:18" ht="14">
+    <row r="457" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31208,7 +32066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:18" ht="14">
+    <row r="458" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31262,7 +32120,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="459" spans="1:18" ht="14">
+    <row r="459" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="e">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>#N/A</v>
@@ -31319,7 +32177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:18" ht="18" customHeight="1">
+    <row r="460" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>005W</v>
@@ -31372,8 +32230,11 @@
       <c r="Q460" s="2">
         <v>76.8</v>
       </c>
-    </row>
-    <row r="461" spans="1:18" ht="18" customHeight="1">
+      <c r="S460" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -31426,8 +32287,11 @@
       <c r="Q461" s="2">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="462" spans="1:18" ht="18" customHeight="1">
+      <c r="S461" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -31480,8 +32344,11 @@
       <c r="Q462" s="2">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="463" spans="1:18" ht="18" customHeight="1">
+      <c r="S462" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>033W</v>
@@ -31534,8 +32401,11 @@
       <c r="Q463" s="2">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="464" spans="1:18" ht="18" customHeight="1">
+      <c r="S463" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>086W</v>
@@ -31588,8 +32458,11 @@
       <c r="Q464" s="2">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="465" spans="1:18" ht="18" customHeight="1">
+      <c r="S464" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -31645,8 +32518,11 @@
       <c r="R465" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="466" spans="1:18" ht="18" customHeight="1">
+      <c r="S465" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>031W</v>
@@ -31702,8 +32578,11 @@
       <c r="R466" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:18" ht="18" customHeight="1">
+      <c r="S466" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="str">
         <f>LOOKUP(B:B,'[1]All Strats'!$E:$E,'[1]All Strats'!$G:$G)</f>
         <v>043W</v>
@@ -31759,14 +32638,15 @@
       <c r="R467" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="S467" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R467"/>
-  <mergeCells count="18">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
+  <autoFilter ref="A1:S467"/>
+  <mergeCells count="19">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="B1:B2"/>
@@ -31781,13 +32661,11 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>